--- a/Trabalho 2/Meta 2/Resultados.xlsx
+++ b/Trabalho 2/Meta 2/Resultados.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jgmfe\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{EA4EAD59-1791-464A-A8F7-BA111D3E5B1E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A0E171D9-2020-48A3-9514-F7267396332E}" xr6:coauthVersionLast="44" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="6" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
   </bookViews>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="656" uniqueCount="207">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="678" uniqueCount="253">
   <si>
     <t>Trepa Colinas</t>
   </si>
@@ -657,6 +657,144 @@
   </si>
   <si>
     <t>Temperatura Inicial</t>
+  </si>
+  <si>
+    <t>2 1 8 14 3 11 12 19 9 15 10 7 6 4 17 18 16 20 13 5</t>
+  </si>
+  <si>
+    <t>1964916p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>16 17 2 5 11 13 10 9 8 6 14 4 15 19 18 20 12 3 7 1</t>
+  </si>
+  <si>
+    <t>1965131p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>17 15 6 9 11 12 5 2 4 18 7 3 19 8 16 20 14 13 10 1</t>
+  </si>
+  <si>
+    <t>1965234p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>14 10 1 4 7 5 3 8 6 9 12 17 15 18 16 2 20 13 11 19</t>
+  </si>
+  <si>
+    <t>1965333p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>17 16 4 12 2 3 11 9 5 13 8 1 7 6 10 15 14 19 20 18</t>
+  </si>
+  <si>
+    <t>1965455p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>Um mapa muito complexo. Pode demorar muito tempo até encontrar a melhor solução possível.</t>
+  </si>
+  <si>
+    <t>16 17 20 13 19 18 15 14 6 1 2 7 10 11 3 9 5 4 8 12</t>
+  </si>
+  <si>
+    <t>1965837p.m._HillClimberOptimiser</t>
+  </si>
+  <si>
+    <t>Logo aqui vê se que o trepa colinas consegue obter melhores resultado que a pesquisa aleatórias num mapa mais complexo</t>
+  </si>
+  <si>
+    <t>7 4 8 2 1 6 16 15 13 18 19 9 12 3 5 11 17 20 14 10</t>
+  </si>
+  <si>
+    <t>1965959p.m._HillClimberOptimiser</t>
+  </si>
+  <si>
+    <t>1970046p.m._HillClimberOptimiser</t>
+  </si>
+  <si>
+    <t>16 6 1 4 7 10 15 20 17 18 9 19 3 5 8 2 14 13 11 12</t>
+  </si>
+  <si>
+    <t>16 6 1 4 7 10 15 17 20 18 19 9 3 5 2 8 14 13 11 12</t>
+  </si>
+  <si>
+    <t>1970123p.m._HillClimberOptimiser</t>
+  </si>
+  <si>
+    <t>17 6 1 4 7 10 15 17 20 18 19 9 3 5 2 8 14 13 11 12</t>
+  </si>
+  <si>
+    <t>1970356p.m._HillClimberOptimiser</t>
+  </si>
+  <si>
+    <t>Com 10x mais iterações, não foi possível encontrar uma solução mais ótima. Continuam a ser precisas muitas iterações para alcançar a melhor solução</t>
+  </si>
+  <si>
+    <t>1 2 3 10 8 4 19 14 12 24 16 23 11 13 15 18 22 5 21 9 17 20 6 7</t>
+  </si>
+  <si>
+    <t>1972015p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>2 6 3 12 15 21 11 5 16 13 8 20 24 17 4 10 14 9 1 7 22 23 18 19</t>
+  </si>
+  <si>
+    <t>1972156p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>2 4 19 10 23 16 11 1 14 18 17 24 8 7 3 6 22 12 20 21 9 13 15 5</t>
+  </si>
+  <si>
+    <t>1972301p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>1972339p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>1972421p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>5 6 11 10 8 22 18 4 9 3 2 1 15 17 12 14 13 19 23 21 16 20 24 7</t>
+  </si>
+  <si>
+    <t>1 2 4 18 19 23 24 21 16 15 22 13 5 9 8 7 12 10 11 20 17 3 6 14</t>
+  </si>
+  <si>
+    <t>1972614p.m._RandomSearchOptimiser</t>
+  </si>
+  <si>
+    <t>4 10 22 18 23 16 19 21 15 5 2 1 14 12 6 3 7 8 9 13 11 17 24 20</t>
+  </si>
+  <si>
+    <t>1973210p.m._HillClimberOptimiser</t>
+  </si>
+  <si>
+    <t>Com apenas 100 iterações encontrou uma solução melhor que o algoritmo de procura aleatória em 100000 iterações</t>
+  </si>
+  <si>
+    <t>3 8 12 4 10 9 11 5 2 1 21 23 18 22 15 19 13 17 20 24 16 14 6 7</t>
+  </si>
+  <si>
+    <t>1973341p.m._HillClimberOptimiser</t>
+  </si>
+  <si>
+    <t>2 10 1 4 11 13 19 21 12 24 20 8 7 3 6 5 17 15 22 23 18 9 14 16</t>
+  </si>
+  <si>
+    <t>1973414p.m._HillClimberOptimiser</t>
+  </si>
+  <si>
+    <t>2 1 15 16 18 23 22 21 19 10 4 5 14 12 6 3 7 8 9 11 13 17 24 20</t>
+  </si>
+  <si>
+    <t>1973454p.m._HillClimberOptimiser</t>
+  </si>
+  <si>
+    <t>2 1 4 10 15 19 21 22 23 18 16 13 14 12 8 7 3 6 5 11 9 17 24 20</t>
+  </si>
+  <si>
+    <t>1973654p.m._HillClimberOptimiser</t>
+  </si>
+  <si>
+    <t>Resultados muito melhores que o algoritmo de pesquisa aleatória</t>
   </si>
 </sst>
 </file>
@@ -3702,8 +3840,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B8C91D61-F5E8-A647-82E8-F0EDF9A7AD79}">
   <dimension ref="A1:M52"/>
   <sheetViews>
-    <sheetView topLeftCell="A26" workbookViewId="0">
-      <selection sqref="A1:O55"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
@@ -4490,13 +4628,24 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{815C517B-9D4B-4F5C-AE56-576C3B67B94A}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M33"/>
   <sheetViews>
-    <sheetView topLeftCell="A36" workbookViewId="0">
-      <selection activeCell="L72" sqref="L72"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.375" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -4539,258 +4688,424 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>207</v>
+      </c>
+      <c r="I4">
+        <v>58</v>
+      </c>
+      <c r="J4">
+        <v>157</v>
+      </c>
+      <c r="K4" t="s">
+        <v>208</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>209</v>
+      </c>
+      <c r="I5">
+        <v>96</v>
+      </c>
+      <c r="J5">
+        <v>154</v>
+      </c>
+      <c r="K5" t="s">
+        <v>210</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>211</v>
+      </c>
+      <c r="I6">
+        <v>75</v>
+      </c>
+      <c r="J6">
+        <v>160</v>
+      </c>
+      <c r="K6" t="s">
+        <v>212</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>213</v>
+      </c>
+      <c r="I7">
+        <v>853</v>
+      </c>
+      <c r="J7">
+        <v>153</v>
+      </c>
+      <c r="K7" t="s">
+        <v>214</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A9" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>215</v>
+      </c>
+      <c r="I8">
+        <v>4237</v>
+      </c>
+      <c r="J8">
+        <v>135</v>
+      </c>
+      <c r="K8" t="s">
+        <v>216</v>
+      </c>
+      <c r="L8" t="s">
+        <v>217</v>
+      </c>
+    </row>
+    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A11" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="D11" t="s">
+        <v>6</v>
+      </c>
+      <c r="G11" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="D12" t="s">
+        <v>5</v>
+      </c>
+      <c r="E12" t="s">
+        <v>2</v>
+      </c>
+      <c r="G12" t="s">
+        <v>10</v>
+      </c>
+      <c r="H12" t="s">
+        <v>8</v>
+      </c>
+      <c r="I12" t="s">
+        <v>9</v>
+      </c>
+      <c r="J12" t="s">
+        <v>11</v>
+      </c>
+      <c r="K12" t="s">
+        <v>12</v>
+      </c>
+      <c r="L12" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14">
+        <v>100</v>
+      </c>
+      <c r="E14">
+        <v>0</v>
+      </c>
+      <c r="G14">
+        <v>100</v>
+      </c>
+      <c r="H14" t="s">
+        <v>218</v>
+      </c>
+      <c r="I14">
+        <v>83</v>
+      </c>
+      <c r="J14">
+        <v>111</v>
+      </c>
+      <c r="K14" t="s">
+        <v>219</v>
+      </c>
+      <c r="L14" t="s">
+        <v>220</v>
+      </c>
+    </row>
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>4</v>
+      </c>
+      <c r="D15">
+        <v>100</v>
+      </c>
+      <c r="E15">
+        <v>100</v>
+      </c>
+      <c r="G15">
+        <v>100</v>
+      </c>
+      <c r="H15" t="s">
+        <v>221</v>
+      </c>
+      <c r="I15">
+        <v>68</v>
+      </c>
+      <c r="J15">
+        <v>109</v>
+      </c>
+      <c r="K15" t="s">
+        <v>222</v>
+      </c>
+    </row>
+    <row r="16" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>16</v>
+      </c>
+      <c r="D16">
+        <v>100</v>
+      </c>
+      <c r="E16">
+        <v>200</v>
+      </c>
+      <c r="G16">
+        <v>100</v>
+      </c>
+      <c r="H16" t="s">
+        <v>224</v>
+      </c>
+      <c r="I16">
+        <v>95</v>
+      </c>
+      <c r="J16">
+        <v>107</v>
+      </c>
+      <c r="K16" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="17" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>17</v>
+      </c>
+      <c r="D17">
+        <v>1000</v>
+      </c>
+      <c r="E17">
+        <v>200</v>
+      </c>
+      <c r="G17">
+        <v>1000</v>
+      </c>
+      <c r="H17" t="s">
+        <v>225</v>
+      </c>
+      <c r="I17">
+        <v>659</v>
+      </c>
+      <c r="J17">
+        <v>89</v>
+      </c>
+      <c r="K17" t="s">
+        <v>226</v>
+      </c>
+    </row>
+    <row r="18" spans="1:13" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>18</v>
+      </c>
+      <c r="D18">
+        <v>10000</v>
+      </c>
+      <c r="E18">
+        <v>200</v>
+      </c>
+      <c r="G18">
+        <v>10000</v>
+      </c>
+      <c r="H18" t="s">
+        <v>227</v>
+      </c>
+      <c r="I18">
+        <v>659</v>
+      </c>
+      <c r="J18">
+        <v>89</v>
+      </c>
+      <c r="K18" t="s">
+        <v>228</v>
+      </c>
+      <c r="L18" t="s">
+        <v>229</v>
+      </c>
+    </row>
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.35">
       <c r="A21" s="1" t="s">
-        <v>0</v>
+        <v>205</v>
       </c>
       <c r="D21" t="s">
         <v>6</v>
       </c>
-      <c r="G21" t="s">
+      <c r="H21" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.25">
       <c r="D22" t="s">
         <v>5</v>
       </c>
       <c r="E22" t="s">
         <v>2</v>
       </c>
-      <c r="G22" t="s">
+      <c r="F22" t="s">
+        <v>206</v>
+      </c>
+      <c r="H22" t="s">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
+      <c r="I22" t="s">
         <v>8</v>
       </c>
-      <c r="I22" t="s">
+      <c r="J22" t="s">
         <v>9</v>
       </c>
-      <c r="J22" t="s">
+      <c r="K22" t="s">
         <v>11</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>12</v>
       </c>
-      <c r="L22" t="s">
+      <c r="M22" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
         <v>23</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A34" t="s">
-        <v>135</v>
-      </c>
-    </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A35" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A36" t="s">
-        <v>199</v>
-      </c>
-    </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>206</v>
-      </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
-        <v>23</v>
-      </c>
-    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD78113-BF29-4DE2-BB0B-C375FBE02098}">
-  <dimension ref="A1:M52"/>
+  <dimension ref="A1:M37"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A21" workbookViewId="0">
-      <selection sqref="A1:R58"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G7" sqref="G7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.75" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="27.75" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.75" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.75" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="52.625" bestFit="1" customWidth="1"/>
+    <col min="9" max="10" width="18" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
     <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.35">
       <c r="A1" s="1" t="s">
@@ -4833,241 +5148,416 @@
       <c r="A4" t="s">
         <v>3</v>
       </c>
+      <c r="D4">
+        <v>100</v>
+      </c>
+      <c r="E4">
+        <v>0</v>
+      </c>
+      <c r="G4">
+        <v>100</v>
+      </c>
+      <c r="H4" t="s">
+        <v>230</v>
+      </c>
+      <c r="I4">
+        <v>42</v>
+      </c>
+      <c r="J4">
+        <v>435</v>
+      </c>
+      <c r="K4" t="s">
+        <v>231</v>
+      </c>
     </row>
     <row r="5" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
         <v>4</v>
       </c>
+      <c r="D5">
+        <v>100</v>
+      </c>
+      <c r="E5">
+        <v>100</v>
+      </c>
+      <c r="G5">
+        <v>100</v>
+      </c>
+      <c r="H5" t="s">
+        <v>232</v>
+      </c>
+      <c r="I5">
+        <v>77</v>
+      </c>
+      <c r="J5">
+        <v>409</v>
+      </c>
+      <c r="K5" t="s">
+        <v>233</v>
+      </c>
     </row>
     <row r="6" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
         <v>16</v>
       </c>
+      <c r="D6">
+        <v>100</v>
+      </c>
+      <c r="E6">
+        <v>200</v>
+      </c>
+      <c r="G6">
+        <v>100</v>
+      </c>
+      <c r="H6" t="s">
+        <v>234</v>
+      </c>
+      <c r="I6">
+        <v>77</v>
+      </c>
+      <c r="J6">
+        <v>430</v>
+      </c>
+      <c r="K6" t="s">
+        <v>235</v>
+      </c>
     </row>
     <row r="7" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
         <v>17</v>
       </c>
+      <c r="D7">
+        <v>1000</v>
+      </c>
+      <c r="E7">
+        <v>100</v>
+      </c>
+      <c r="G7">
+        <v>1000</v>
+      </c>
+      <c r="H7" t="s">
+        <v>232</v>
+      </c>
+      <c r="I7">
+        <v>77</v>
+      </c>
+      <c r="J7">
+        <v>409</v>
+      </c>
+      <c r="K7" t="s">
+        <v>236</v>
+      </c>
     </row>
     <row r="8" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
         <v>18</v>
       </c>
+      <c r="D8">
+        <v>10000</v>
+      </c>
+      <c r="E8">
+        <v>100</v>
+      </c>
+      <c r="G8">
+        <v>10000</v>
+      </c>
+      <c r="H8" t="s">
+        <v>238</v>
+      </c>
+      <c r="I8">
+        <v>8977</v>
+      </c>
+      <c r="J8">
+        <v>383</v>
+      </c>
+      <c r="K8" t="s">
+        <v>237</v>
+      </c>
     </row>
     <row r="9" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A10" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A12" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.35">
-      <c r="A21" s="1" t="s">
+      <c r="D9">
+        <v>100000</v>
+      </c>
+      <c r="E9">
+        <v>100</v>
+      </c>
+      <c r="G9">
+        <v>100000</v>
+      </c>
+      <c r="H9" t="s">
+        <v>239</v>
+      </c>
+      <c r="I9">
+        <v>98387</v>
+      </c>
+      <c r="J9">
+        <v>365</v>
+      </c>
+      <c r="K9" t="s">
+        <v>240</v>
+      </c>
+    </row>
+    <row r="14" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A14" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D21" t="s">
+      <c r="D14" t="s">
         <v>6</v>
       </c>
-      <c r="G21" t="s">
+      <c r="G14" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="D22" t="s">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="D15" t="s">
         <v>5</v>
       </c>
-      <c r="E22" t="s">
+      <c r="E15" t="s">
         <v>2</v>
       </c>
-      <c r="G22" t="s">
+      <c r="G15" t="s">
         <v>10</v>
       </c>
-      <c r="H22" t="s">
+      <c r="H15" t="s">
         <v>8</v>
       </c>
-      <c r="I22" t="s">
+      <c r="I15" t="s">
         <v>9</v>
       </c>
-      <c r="J22" t="s">
+      <c r="J15" t="s">
         <v>11</v>
       </c>
-      <c r="K22" t="s">
+      <c r="K15" t="s">
         <v>12</v>
       </c>
-      <c r="L22" t="s">
+      <c r="L15" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A24" t="s">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A25" t="s">
+      <c r="D17">
+        <v>100</v>
+      </c>
+      <c r="E17">
+        <v>0</v>
+      </c>
+      <c r="G17">
+        <v>100</v>
+      </c>
+      <c r="H17" t="s">
+        <v>241</v>
+      </c>
+      <c r="I17">
+        <v>89</v>
+      </c>
+      <c r="J17">
+        <v>312</v>
+      </c>
+      <c r="K17" t="s">
+        <v>242</v>
+      </c>
+      <c r="L17" t="s">
+        <v>243</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A26" t="s">
+      <c r="D18">
+        <v>100</v>
+      </c>
+      <c r="E18">
+        <v>100</v>
+      </c>
+      <c r="G18">
+        <v>100</v>
+      </c>
+      <c r="H18" t="s">
+        <v>244</v>
+      </c>
+      <c r="I18">
+        <v>75</v>
+      </c>
+      <c r="J18">
+        <v>327</v>
+      </c>
+      <c r="K18" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.25">
-      <c r="A27" t="s">
+      <c r="D19">
+        <v>100</v>
+      </c>
+      <c r="E19">
+        <v>200</v>
+      </c>
+      <c r="G19">
+        <v>100</v>
+      </c>
+      <c r="H19" t="s">
+        <v>246</v>
+      </c>
+      <c r="I19">
+        <v>88</v>
+      </c>
+      <c r="J19">
+        <v>342</v>
+      </c>
+      <c r="K19" t="s">
+        <v>247</v>
+      </c>
+    </row>
+    <row r="20" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>17</v>
+      </c>
+      <c r="D20">
+        <v>1000</v>
+      </c>
+      <c r="E20">
+        <v>0</v>
+      </c>
+      <c r="G20">
+        <v>1000</v>
+      </c>
+      <c r="H20" t="s">
+        <v>248</v>
+      </c>
+      <c r="I20">
+        <v>451</v>
+      </c>
+      <c r="J20">
+        <v>252</v>
+      </c>
+      <c r="K20" t="s">
+        <v>249</v>
+      </c>
+    </row>
+    <row r="21" spans="1:12" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>18</v>
+      </c>
+      <c r="D21">
+        <v>10000</v>
+      </c>
+      <c r="E21">
+        <v>0</v>
+      </c>
+      <c r="G21">
+        <v>10000</v>
+      </c>
+      <c r="H21" t="s">
+        <v>250</v>
+      </c>
+      <c r="I21">
+        <v>3757</v>
+      </c>
+      <c r="J21">
+        <v>210</v>
+      </c>
+      <c r="K21" t="s">
+        <v>251</v>
+      </c>
+      <c r="L21" t="s">
+        <v>252</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" ht="21" x14ac:dyDescent="0.35">
+      <c r="A25" s="1" t="s">
+        <v>205</v>
       </c>
     </row>
     <row r="28" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>18</v>
+        <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>19</v>
+        <v>4</v>
       </c>
     </row>
     <row r="30" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>20</v>
+        <v>16</v>
       </c>
     </row>
     <row r="31" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>21</v>
+        <v>17</v>
       </c>
     </row>
     <row r="32" spans="1:12" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>22</v>
+        <v>18</v>
       </c>
     </row>
     <row r="33" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>23</v>
+        <v>19</v>
       </c>
     </row>
     <row r="34" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>135</v>
+        <v>20</v>
+      </c>
+      <c r="D34" t="s">
+        <v>6</v>
+      </c>
+      <c r="H34" t="s">
+        <v>7</v>
       </c>
     </row>
     <row r="35" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>138</v>
+        <v>21</v>
+      </c>
+      <c r="D35" t="s">
+        <v>5</v>
+      </c>
+      <c r="E35" t="s">
+        <v>2</v>
+      </c>
+      <c r="F35" t="s">
+        <v>206</v>
+      </c>
+      <c r="H35" t="s">
+        <v>10</v>
+      </c>
+      <c r="I35" t="s">
+        <v>8</v>
+      </c>
+      <c r="J35" t="s">
+        <v>9</v>
+      </c>
+      <c r="K35" t="s">
+        <v>11</v>
+      </c>
+      <c r="L35" t="s">
+        <v>12</v>
+      </c>
+      <c r="M35" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="36" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>199</v>
+        <v>22</v>
       </c>
     </row>
     <row r="37" spans="1:13" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>200</v>
-      </c>
-    </row>
-    <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.35">
-      <c r="A40" s="1" t="s">
-        <v>205</v>
-      </c>
-      <c r="D40" t="s">
-        <v>6</v>
-      </c>
-      <c r="H40" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="D41" t="s">
-        <v>5</v>
-      </c>
-      <c r="E41" t="s">
-        <v>2</v>
-      </c>
-      <c r="F41" t="s">
-        <v>206</v>
-      </c>
-      <c r="H41" t="s">
-        <v>10</v>
-      </c>
-      <c r="I41" t="s">
-        <v>8</v>
-      </c>
-      <c r="J41" t="s">
-        <v>9</v>
-      </c>
-      <c r="K41" t="s">
-        <v>11</v>
-      </c>
-      <c r="L41" t="s">
-        <v>12</v>
-      </c>
-      <c r="M41" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A43" t="s">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A44" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A45" t="s">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A46" t="s">
-        <v>17</v>
-      </c>
-    </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A47" t="s">
-        <v>18</v>
-      </c>
-    </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.25">
-      <c r="A48" t="s">
-        <v>19</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
-        <v>20</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
         <v>23</v>
       </c>
     </row>

--- a/Trabalho 2/Meta 2/Resultados.xlsx
+++ b/Trabalho 2/Meta 2/Resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amserra/Documents/GitHub/Projeto-IIA/Trabalho 2/Meta 2/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 2\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{41B800F0-A636-3347-8F99-33BAEF03AA1A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485BBED6-A9C4-4840-AA54-B45211FBD8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="33600" yWindow="460" windowWidth="38400" windowHeight="15120" activeTab="6" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="6" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NoObstacles" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1388" uniqueCount="653">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="760">
   <si>
     <t>Trepa Colinas</t>
   </si>
@@ -1998,6 +1998,327 @@
   </si>
   <si>
     <t>ESCOLHA: T = 5</t>
+  </si>
+  <si>
+    <t>Teste #61</t>
+  </si>
+  <si>
+    <t>Teste #62</t>
+  </si>
+  <si>
+    <t>Teste #63</t>
+  </si>
+  <si>
+    <t>Teste #64</t>
+  </si>
+  <si>
+    <t>Teste #65</t>
+  </si>
+  <si>
+    <t>2443705p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2443949p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2444113p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2444237p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>14 11 1 4 10 15 13 7 3 8 22 21 23 17 9 19 18 16 24 20 12 6 2 5</t>
+  </si>
+  <si>
+    <t>2444412p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #66</t>
+  </si>
+  <si>
+    <t>Teste #67</t>
+  </si>
+  <si>
+    <t>Teste #68</t>
+  </si>
+  <si>
+    <t>Teste #69</t>
+  </si>
+  <si>
+    <t>Teste #70</t>
+  </si>
+  <si>
+    <t>2444621p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2445248p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>6 13 14 11 10 23 18 8 5 9 15 4 1 2 3 24 16 19 22 21 17 20 12 7</t>
+  </si>
+  <si>
+    <t>2445749p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 7 9 10 22 21 15 11 1 2 4 17 20 8 14 12 6 5 16 23 19 24 18 13</t>
+  </si>
+  <si>
+    <t>2445904p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2450057p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #71</t>
+  </si>
+  <si>
+    <t>Teste #72</t>
+  </si>
+  <si>
+    <t>Teste #73</t>
+  </si>
+  <si>
+    <t>Teste #74</t>
+  </si>
+  <si>
+    <t>Teste #75</t>
+  </si>
+  <si>
+    <t>2450258p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>6 13 15 11 10 23 18 4 5 8 7 3 1 2 14 19 16 20 24 21 22 17 12 9</t>
+  </si>
+  <si>
+    <t>2450441p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>4 11 19 9 8 5 6 18 16 2 1 3 7 14 20 12 13 10 24 23 15 21 22 17</t>
+  </si>
+  <si>
+    <t>2450915p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 9 7 8 10 5 6 12 24 18 13 14 17 20 3 2 4 22 16 19 23 11 15 21</t>
+  </si>
+  <si>
+    <t>2451012p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2451104p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #76</t>
+  </si>
+  <si>
+    <t>Teste #77</t>
+  </si>
+  <si>
+    <t>Teste #78</t>
+  </si>
+  <si>
+    <t>Teste #79</t>
+  </si>
+  <si>
+    <t>Teste #80</t>
+  </si>
+  <si>
+    <t>2452648p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>6 14 4 1 2 15 19 20 13 9 5 10 11 3 7 18 24 8 16 21 22 23 17 12</t>
+  </si>
+  <si>
+    <t>2453057p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2453246p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>7 3 8 14 5 10 4 9 22 23 24 6 17 20 12 2 1 15 18 16 13 11 19 21</t>
+  </si>
+  <si>
+    <t>2453402p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>12 4 1 2 5 14 8 7 13 23 21 10 9 15 16 18 19 24 20 17 3 6 11 22</t>
+  </si>
+  <si>
+    <t>2453515p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #81</t>
+  </si>
+  <si>
+    <t>Teste #82</t>
+  </si>
+  <si>
+    <t>Teste #83</t>
+  </si>
+  <si>
+    <t>Teste #84</t>
+  </si>
+  <si>
+    <t>Teste #85</t>
+  </si>
+  <si>
+    <t>3 23 16 5 6 12 8 7 18 22 11 10 13 21 19 15 14 24 20 17 1 2 4 9</t>
+  </si>
+  <si>
+    <t>2453623p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>5 11 16 13 23 7 3 6 14 12 24 20 17 8 18 21 19 10 15 1 2 4 22 9</t>
+  </si>
+  <si>
+    <t>2454041p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2 5 4 10 1 16 24 18 11 9 8 13 7 3 6 15 19 23 22 21 17 20 14 12</t>
+  </si>
+  <si>
+    <t>2454140p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 2 8 14 13 6 5 24 20 17 12 10 1 9 7 11 15 21 23 4 16 18 19 22</t>
+  </si>
+  <si>
+    <t>2454223p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 23 22 19 11 14 20 24 8 13 9 7 12 17 5 2 1 10 18 4 6 21 15 16</t>
+  </si>
+  <si>
+    <t>2454342p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #86</t>
+  </si>
+  <si>
+    <t>Teste #87</t>
+  </si>
+  <si>
+    <t>Teste #88</t>
+  </si>
+  <si>
+    <t>Teste #89</t>
+  </si>
+  <si>
+    <t>Teste #90</t>
+  </si>
+  <si>
+    <t>Temperatura acaba com valores bastantes altos.</t>
+  </si>
+  <si>
+    <t>2 1 4 10 15 19 21 23 18 24 20 17 9 11 5 8 6 3 7 12 14 13 16 22</t>
+  </si>
+  <si>
+    <t>2455217p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 7 13 10 11 9 14 12 6 2 1 4 5 8 17 20 24 18 23 22 21 19 16 15</t>
+  </si>
+  <si>
+    <t>2455907p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2 1 4 11 15 20 24 18 16 13 14 9 8 17 12 7 3 6 5 10 22 21 19 23</t>
+  </si>
+  <si>
+    <t>2461104p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2 3 7 6 5 14 13 16 23 18 24 20 17 12 8 9 10 11 4 1 15 19 22 21</t>
+  </si>
+  <si>
+    <t>2461405p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2 3 7 12 14 13 16 22 15 4 11 9 10 19 21 23 18 24 20 17 8 6 5 1</t>
+  </si>
+  <si>
+    <t>2461540p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>11 9 12 6 3 7 8 14 13 10 4 1 2 5 17 20 24 18 23 22 21 19 15 16</t>
+  </si>
+  <si>
+    <t>2462259p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>6 14 13 16 22 21 15 10 11 9 5 4 1 2 3 7 8 12 17 20 24 18 23 19</t>
+  </si>
+  <si>
+    <t>2462512p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 7 8 9 15 19 21 23 22 11 10 4 1 2 5 6 17 24 12 14 13 16 18 20</t>
+  </si>
+  <si>
+    <t>2462753p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2 1 4 5 6 12 17 20 24 18 16 13 14 8 7 3 9 11 10 15 19 21 22 23</t>
+  </si>
+  <si>
+    <t>2463010p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2 5 6 3 7 8 9 4 1 11 10 15 23 22 21 19 18 24 20 17 12 14 13 16</t>
+  </si>
+  <si>
+    <t>2463205p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Teste #91</t>
+  </si>
+  <si>
+    <t>Teste #92</t>
+  </si>
+  <si>
+    <t>Teste #93</t>
+  </si>
+  <si>
+    <t>Teste #94</t>
+  </si>
+  <si>
+    <t>Teste #95</t>
+  </si>
+  <si>
+    <t>2463659p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>8 9 11 19 21 15 10 4 1 2 5 6 3 7 14 13 16 22 23 18 24 20 17 12</t>
+  </si>
+  <si>
+    <t>2463938p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>5 9 11 22 21 19 15 10 4 1 2 3 7 6 8 12 14 13 16 23 18 24 20 17</t>
+  </si>
+  <si>
+    <t>2464904p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2 1 4 5 6 3 7 16 23 18 24 20 17 12 8 9 10 19 21 22 15 11 13 14</t>
+  </si>
+  <si>
+    <t>2465104p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>14 13 11 10 9 4 1 2 3 7 12 18 16 15 19 21 22 23 24 20 17 8 6 5</t>
+  </si>
+  <si>
+    <t>2465530p.m._SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Com Tinicial = 5 e D = 6 obtivemos os melhore resultados, com uma média de 234,4</t>
+  </si>
+  <si>
+    <t>Aumentar o número de iterações e variar o D entre 3 6 9</t>
+  </si>
+  <si>
+    <t>Se a Tinicial for muito alta, chegamos ao fim com uma tfinal também muito alta. Se dimiuirmos muito o D passamos a ter um comportamento próximo do Fast Annealing</t>
   </si>
 </sst>
 </file>
@@ -2068,7 +2389,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="7">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -2077,6 +2398,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="1"/>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Correto" xfId="1" builtinId="26"/>
@@ -2398,20 +2720,20 @@
       <selection activeCell="G51" sqref="G51:I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.1640625" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.1640625" customWidth="1"/>
-    <col min="8" max="9" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.83203125" customWidth="1"/>
-    <col min="13" max="13" width="10.83203125" customWidth="1"/>
+    <col min="5" max="5" width="12.19921875" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.19921875" customWidth="1"/>
+    <col min="8" max="9" width="16.69921875" customWidth="1"/>
+    <col min="11" max="11" width="18.796875" customWidth="1"/>
+    <col min="13" max="13" width="10.796875" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="43.33203125" customWidth="1"/>
+    <col min="15" max="15" width="43.296875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2422,7 +2744,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -2448,7 +2770,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2474,7 +2796,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2500,7 +2822,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2526,7 +2848,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2552,7 +2874,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2581,7 +2903,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2607,7 +2929,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2633,7 +2955,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2659,7 +2981,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -2685,7 +3007,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -2711,7 +3033,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -2737,7 +3059,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -2763,7 +3085,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -2789,7 +3111,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -2815,7 +3137,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>186</v>
       </c>
@@ -2841,7 +3163,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>197</v>
       </c>
@@ -2867,7 +3189,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -2893,7 +3215,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -2919,7 +3241,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -2945,7 +3267,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -2971,7 +3293,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -2985,7 +3307,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D26" t="s">
         <v>5</v>
       </c>
@@ -3008,7 +3330,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3034,7 +3356,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3060,7 +3382,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3086,7 +3408,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -3112,7 +3434,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -3141,7 +3463,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3167,7 +3489,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -3193,7 +3515,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -3219,7 +3541,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -3245,7 +3567,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3271,7 +3593,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -3297,7 +3619,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -3323,7 +3645,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -3349,7 +3671,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -3375,7 +3697,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -3401,7 +3723,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>197</v>
       </c>
@@ -3427,7 +3749,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -3453,7 +3775,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>201</v>
       </c>
@@ -3479,7 +3801,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>199</v>
       </c>
@@ -3505,7 +3827,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>200</v>
       </c>
@@ -3531,7 +3853,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.4">
       <c r="A50" s="1" t="s">
         <v>156</v>
       </c>
@@ -3542,7 +3864,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
       <c r="D51" t="s">
         <v>5</v>
       </c>
@@ -3580,7 +3902,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -3612,7 +3934,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3647,7 +3969,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -3679,7 +4001,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -3711,7 +4033,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -3746,7 +4068,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -3778,7 +4100,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -3810,7 +4132,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -3842,7 +4164,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -3874,7 +4196,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -3909,7 +4231,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -3944,7 +4266,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -3976,7 +4298,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -4008,7 +4330,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>151</v>
       </c>
@@ -4040,7 +4362,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -4072,7 +4394,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>197</v>
       </c>
@@ -4107,7 +4429,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>198</v>
       </c>
@@ -4139,7 +4461,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -4171,7 +4493,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>199</v>
       </c>
@@ -4203,7 +4525,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -4235,7 +4557,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -4270,7 +4592,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -4308,7 +4630,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>263</v>
       </c>
@@ -4343,7 +4665,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -4378,7 +4700,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>265</v>
       </c>
@@ -4413,7 +4735,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>266</v>
       </c>
@@ -4451,7 +4773,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>267</v>
       </c>
@@ -4486,7 +4808,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>268</v>
       </c>
@@ -4521,7 +4843,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>269</v>
       </c>
@@ -4556,7 +4878,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>270</v>
       </c>
@@ -4591,7 +4913,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>271</v>
       </c>
@@ -4626,7 +4948,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>272</v>
       </c>
@@ -4661,7 +4983,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
         <v>273</v>
       </c>
@@ -4696,7 +5018,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
         <v>288</v>
       </c>
@@ -4731,7 +5053,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
         <v>289</v>
       </c>
@@ -4766,7 +5088,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>300</v>
       </c>
@@ -4801,7 +5123,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>301</v>
       </c>
@@ -4836,7 +5158,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>302</v>
       </c>
@@ -4871,7 +5193,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>303</v>
       </c>
@@ -4906,7 +5228,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>304</v>
       </c>
@@ -4941,37 +5263,37 @@
         <v>305</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
         <v>254</v>
       </c>
@@ -4989,20 +5311,20 @@
       <selection activeCell="A30" sqref="A30:M43"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.1640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.19921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5013,7 +5335,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -5039,7 +5361,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5065,7 +5387,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5091,7 +5413,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5117,7 +5439,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5143,7 +5465,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5169,7 +5491,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5195,7 +5517,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5224,7 +5546,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -5235,7 +5557,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -5261,7 +5583,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -5287,7 +5609,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -5313,7 +5635,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -5342,7 +5664,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -5368,7 +5690,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -5397,7 +5719,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A30" s="1" t="s">
         <v>156</v>
       </c>
@@ -5408,7 +5730,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D31" t="s">
         <v>5</v>
       </c>
@@ -5437,52 +5759,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -5501,13 +5823,13 @@
       <selection activeCell="L37" sqref="L37"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="35.1640625" customWidth="1"/>
+    <col min="11" max="11" width="35.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5518,7 +5840,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -5544,7 +5866,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5570,7 +5892,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5596,7 +5918,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5622,7 +5944,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5648,7 +5970,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5674,7 +5996,7 @@
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5700,7 +6022,7 @@
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5726,7 +6048,7 @@
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -5752,7 +6074,7 @@
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -5778,7 +6100,7 @@
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -5804,7 +6126,7 @@
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -5830,7 +6152,7 @@
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -5856,7 +6178,7 @@
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -5882,7 +6204,7 @@
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>151</v>
       </c>
@@ -5908,7 +6230,7 @@
         <v>324</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -5934,7 +6256,7 @@
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>197</v>
       </c>
@@ -5960,7 +6282,7 @@
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -5986,7 +6308,7 @@
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -6012,7 +6334,7 @@
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -6038,7 +6360,7 @@
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -6064,7 +6386,7 @@
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>229</v>
       </c>
@@ -6090,12 +6412,12 @@
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -6103,7 +6425,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D29" t="s">
         <v>5</v>
       </c>
@@ -6129,7 +6451,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -6155,7 +6477,7 @@
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -6181,7 +6503,7 @@
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -6207,7 +6529,7 @@
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -6233,7 +6555,7 @@
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -6259,7 +6581,7 @@
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -6285,7 +6607,7 @@
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -6311,7 +6633,7 @@
         <v>349</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -6337,7 +6659,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -6363,7 +6685,7 @@
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -6389,7 +6711,7 @@
         <v>354</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -6415,7 +6737,7 @@
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -6441,7 +6763,7 @@
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>150</v>
       </c>
@@ -6467,7 +6789,7 @@
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>151</v>
       </c>
@@ -6493,7 +6815,7 @@
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -6519,7 +6841,7 @@
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>197</v>
       </c>
@@ -6545,7 +6867,7 @@
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>198</v>
       </c>
@@ -6571,7 +6893,7 @@
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -6597,7 +6919,7 @@
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -6623,7 +6945,7 @@
         <v>363</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -6649,7 +6971,7 @@
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>229</v>
       </c>
@@ -6672,12 +6994,12 @@
         <v>365</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A54" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D55" t="s">
         <v>6</v>
       </c>
@@ -6688,7 +7010,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D56" t="s">
         <v>5</v>
       </c>
@@ -6714,52 +7036,52 @@
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>23</v>
       </c>
@@ -6777,12 +7099,12 @@
       <selection activeCell="A34" sqref="A34:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="8" max="8" width="19.6640625" customWidth="1"/>
+    <col min="8" max="8" width="19.69921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -6793,7 +7115,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -6819,7 +7141,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -6845,7 +7167,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -6871,7 +7193,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -6897,7 +7219,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -6923,7 +7245,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -6949,7 +7271,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6975,7 +7297,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7001,7 +7323,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -7027,7 +7349,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -7053,7 +7375,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7079,7 +7401,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7105,7 +7427,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -7131,7 +7453,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -7142,7 +7464,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -7168,7 +7490,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -7194,7 +7516,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -7220,7 +7542,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -7246,7 +7568,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -7272,7 +7594,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -7298,7 +7620,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -7324,7 +7646,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -7350,7 +7672,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -7376,7 +7698,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -7402,7 +7724,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
@@ -7413,7 +7735,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D35" t="s">
         <v>5</v>
       </c>
@@ -7442,52 +7764,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -7506,18 +7828,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="15.1640625" customWidth="1"/>
-    <col min="8" max="8" width="35.1640625" customWidth="1"/>
+    <col min="7" max="7" width="15.19921875" customWidth="1"/>
+    <col min="8" max="8" width="35.19921875" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.33203125" customWidth="1"/>
-    <col min="11" max="11" width="33.1640625" customWidth="1"/>
+    <col min="10" max="10" width="12.296875" customWidth="1"/>
+    <col min="11" max="11" width="33.19921875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7528,7 +7850,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -7554,7 +7876,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7580,7 +7902,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7606,7 +7928,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7632,7 +7954,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -7658,7 +7980,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -7684,7 +8006,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -7710,7 +8032,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7736,7 +8058,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -7762,7 +8084,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -7788,7 +8110,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -7799,7 +8121,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -7825,7 +8147,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -7851,7 +8173,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -7877,7 +8199,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -7906,7 +8228,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -7932,7 +8254,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -7958,7 +8280,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -7984,7 +8306,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -8010,7 +8332,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -8036,7 +8358,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -8062,7 +8384,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -8088,7 +8410,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -8114,7 +8436,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -8140,7 +8462,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -8166,7 +8488,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -8192,7 +8514,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A40" s="1" t="s">
         <v>156</v>
       </c>
@@ -8203,7 +8525,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D41" t="s">
         <v>5</v>
       </c>
@@ -8232,52 +8554,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -8296,20 +8618,20 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.33203125" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.296875" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8320,7 +8642,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -8346,7 +8668,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8372,7 +8694,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8398,7 +8720,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -8424,7 +8746,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -8450,7 +8772,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -8479,7 +8801,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.4">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -8490,7 +8812,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -8516,7 +8838,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -8545,7 +8867,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -8571,7 +8893,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -8597,7 +8919,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -8623,7 +8945,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -8652,7 +8974,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.4">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -8663,7 +8985,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -8692,52 +9014,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -8750,30 +9072,30 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD78113-BF29-4DE2-BB0B-C375FBE02098}">
-  <dimension ref="A1:Q145"/>
+  <dimension ref="A1:Q199"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A111" workbookViewId="0">
-      <selection activeCell="J124" sqref="J124"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C17" sqref="C17"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="10" width="16.6640625" customWidth="1"/>
-    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.6640625" customWidth="1"/>
-    <col min="13" max="13" width="52.33203125" customWidth="1"/>
+    <col min="8" max="10" width="16.69921875" customWidth="1"/>
+    <col min="11" max="11" width="18.69921875" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.69921875" customWidth="1"/>
+    <col min="13" max="13" width="52.296875" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.83203125" customWidth="1"/>
-    <col min="16" max="16" width="39.33203125" customWidth="1"/>
-    <col min="17" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.796875" customWidth="1"/>
+    <col min="16" max="16" width="39.296875" customWidth="1"/>
+    <col min="17" max="18" width="11.296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8784,7 +9106,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -8810,7 +9132,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8836,7 +9158,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8862,7 +9184,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -8888,7 +9210,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -8914,7 +9236,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -8940,7 +9262,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -8966,7 +9288,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8992,7 +9314,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -9018,7 +9340,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -9044,7 +9366,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -9070,7 +9392,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -9096,7 +9418,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -9122,7 +9444,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -9148,7 +9470,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>151</v>
       </c>
@@ -9174,7 +9496,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -9200,7 +9522,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>197</v>
       </c>
@@ -9226,7 +9548,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -9252,7 +9574,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -9278,7 +9600,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -9304,7 +9626,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -9330,7 +9652,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>229</v>
       </c>
@@ -9356,7 +9678,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -9367,7 +9689,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D28" t="s">
         <v>5</v>
       </c>
@@ -9393,7 +9715,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -9419,7 +9741,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -9445,7 +9767,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -9471,7 +9793,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -9497,7 +9819,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -9523,7 +9845,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -9549,7 +9871,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -9575,7 +9897,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -9601,7 +9923,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -9627,7 +9949,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -9653,7 +9975,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -9679,7 +10001,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -9705,7 +10027,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -9731,7 +10053,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -9757,7 +10079,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -9783,7 +10105,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>197</v>
       </c>
@@ -9809,7 +10131,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -9835,7 +10157,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -9861,7 +10183,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>199</v>
       </c>
@@ -9887,7 +10209,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>200</v>
       </c>
@@ -9913,7 +10235,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>229</v>
       </c>
@@ -9939,7 +10261,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="21" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:17" ht="21" x14ac:dyDescent="0.4">
       <c r="A53" s="1" t="s">
         <v>156</v>
       </c>
@@ -9950,7 +10272,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D54" s="2" t="s">
         <v>5</v>
       </c>
@@ -9991,7 +10313,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -10026,7 +10348,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -10061,7 +10383,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -10096,7 +10418,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -10131,7 +10453,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -10166,7 +10488,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A61" s="4" t="s">
         <v>19</v>
       </c>
@@ -10206,7 +10528,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A62" s="4" t="s">
         <v>20</v>
       </c>
@@ -10246,7 +10568,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A63" s="4" t="s">
         <v>21</v>
       </c>
@@ -10286,7 +10608,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A64" s="4" t="s">
         <v>22</v>
       </c>
@@ -10326,7 +10648,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A65" s="4" t="s">
         <v>23</v>
       </c>
@@ -10366,7 +10688,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -10401,7 +10723,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -10436,7 +10758,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -10471,7 +10793,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -10506,7 +10828,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -10541,7 +10863,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>197</v>
       </c>
@@ -10576,7 +10898,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>198</v>
       </c>
@@ -10611,7 +10933,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>201</v>
       </c>
@@ -10646,7 +10968,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -10681,7 +11003,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -10719,7 +11041,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>498</v>
       </c>
@@ -10731,7 +11053,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D78" t="s">
         <v>500</v>
       </c>
@@ -10740,7 +11062,7 @@
         <v>332.6</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D79" t="s">
         <v>501</v>
       </c>
@@ -10749,7 +11071,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D80" t="s">
         <v>502</v>
       </c>
@@ -10758,12 +11080,12 @@
         <v>342.8</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A83" s="4" t="s">
         <v>229</v>
       </c>
@@ -10803,7 +11125,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A84" s="4" t="s">
         <v>262</v>
       </c>
@@ -10843,7 +11165,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A85" s="4" t="s">
         <v>263</v>
       </c>
@@ -10883,7 +11205,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A86" s="4" t="s">
         <v>264</v>
       </c>
@@ -10923,7 +11245,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A87" s="4" t="s">
         <v>265</v>
       </c>
@@ -10963,7 +11285,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
         <v>266</v>
       </c>
@@ -10998,7 +11320,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
         <v>267</v>
       </c>
@@ -11033,7 +11355,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -11068,7 +11390,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
         <v>269</v>
       </c>
@@ -11103,7 +11425,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
         <v>270</v>
       </c>
@@ -11138,7 +11460,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
         <v>534</v>
       </c>
@@ -11154,7 +11476,7 @@
         <v>234.2</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
         <v>535</v>
       </c>
@@ -11170,22 +11492,22 @@
         <v>231.8</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A96" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A98" s="5" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
         <v>271</v>
       </c>
@@ -11220,7 +11542,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
         <v>272</v>
       </c>
@@ -11255,7 +11577,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
         <v>273</v>
       </c>
@@ -11290,7 +11612,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
         <v>288</v>
       </c>
@@ -11325,7 +11647,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
         <v>289</v>
       </c>
@@ -11363,7 +11685,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A105" s="4" t="s">
         <v>300</v>
       </c>
@@ -11403,7 +11725,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A106" s="4" t="s">
         <v>301</v>
       </c>
@@ -11443,7 +11765,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A107" s="4" t="s">
         <v>302</v>
       </c>
@@ -11483,7 +11805,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A108" s="4" t="s">
         <v>303</v>
       </c>
@@ -11523,7 +11845,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A109" s="4" t="s">
         <v>304</v>
       </c>
@@ -11563,7 +11885,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
         <v>538</v>
       </c>
@@ -11598,7 +11920,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
         <v>539</v>
       </c>
@@ -11633,7 +11955,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
         <v>540</v>
       </c>
@@ -11668,7 +11990,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
         <v>541</v>
       </c>
@@ -11703,7 +12025,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
         <v>542</v>
       </c>
@@ -11741,7 +12063,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
         <v>543</v>
       </c>
@@ -11776,7 +12098,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
         <v>544</v>
       </c>
@@ -11811,7 +12133,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
         <v>545</v>
       </c>
@@ -11846,7 +12168,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
         <v>546</v>
       </c>
@@ -11881,7 +12203,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
         <v>547</v>
       </c>
@@ -11916,7 +12238,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
         <v>498</v>
       </c>
@@ -11928,7 +12250,7 @@
         <v>348.6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D122" t="s">
         <v>589</v>
       </c>
@@ -11937,7 +12259,7 @@
         <v>343.4</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D123" t="s">
         <v>590</v>
       </c>
@@ -11949,7 +12271,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
       <c r="D124" t="s">
         <v>606</v>
       </c>
@@ -11958,12 +12280,12 @@
         <v>355.8</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
       <c r="A128" s="4" t="s">
         <v>548</v>
       </c>
@@ -12003,7 +12325,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A129" s="4" t="s">
         <v>608</v>
       </c>
@@ -12043,7 +12365,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A130" s="4" t="s">
         <v>609</v>
       </c>
@@ -12083,7 +12405,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A131" s="4" t="s">
         <v>610</v>
       </c>
@@ -12123,7 +12445,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A132" s="4" t="s">
         <v>611</v>
       </c>
@@ -12163,7 +12485,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
         <v>612</v>
       </c>
@@ -12198,7 +12520,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
         <v>613</v>
       </c>
@@ -12233,7 +12555,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
         <v>614</v>
       </c>
@@ -12268,7 +12590,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
         <v>615</v>
       </c>
@@ -12303,7 +12625,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
         <v>616</v>
       </c>
@@ -12338,12 +12660,12 @@
         <v>648</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
         <v>534</v>
       </c>
@@ -12359,7 +12681,7 @@
         <v>236.8</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
         <v>535</v>
       </c>
@@ -12375,17 +12697,1577 @@
         <v>237.6</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="145" spans="1:1" x14ac:dyDescent="0.2">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
       <c r="A145" s="5" t="s">
         <v>650</v>
       </c>
     </row>
+    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A147" t="s">
+        <v>653</v>
+      </c>
+      <c r="D147">
+        <v>100</v>
+      </c>
+      <c r="E147">
+        <v>0</v>
+      </c>
+      <c r="F147">
+        <v>5</v>
+      </c>
+      <c r="G147" t="s">
+        <v>274</v>
+      </c>
+      <c r="H147">
+        <v>3</v>
+      </c>
+      <c r="K147">
+        <v>100</v>
+      </c>
+      <c r="L147">
+        <v>1.1371830000000001</v>
+      </c>
+      <c r="M147" t="s">
+        <v>443</v>
+      </c>
+      <c r="N147">
+        <v>84</v>
+      </c>
+      <c r="O147">
+        <v>316</v>
+      </c>
+      <c r="P147" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A148" t="s">
+        <v>654</v>
+      </c>
+      <c r="D148">
+        <v>100</v>
+      </c>
+      <c r="E148">
+        <v>500</v>
+      </c>
+      <c r="F148">
+        <v>5</v>
+      </c>
+      <c r="G148" t="s">
+        <v>274</v>
+      </c>
+      <c r="H148">
+        <v>3</v>
+      </c>
+      <c r="K148">
+        <v>100</v>
+      </c>
+      <c r="L148">
+        <v>1.080832</v>
+      </c>
+      <c r="M148" t="s">
+        <v>458</v>
+      </c>
+      <c r="N148">
+        <v>98</v>
+      </c>
+      <c r="O148">
+        <v>355</v>
+      </c>
+      <c r="P148" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A149" t="s">
+        <v>655</v>
+      </c>
+      <c r="D149">
+        <v>100</v>
+      </c>
+      <c r="E149">
+        <v>1000</v>
+      </c>
+      <c r="F149">
+        <v>5</v>
+      </c>
+      <c r="G149" t="s">
+        <v>274</v>
+      </c>
+      <c r="H149">
+        <v>3</v>
+      </c>
+      <c r="K149">
+        <v>100</v>
+      </c>
+      <c r="L149">
+        <v>1.155602</v>
+      </c>
+      <c r="M149" t="s">
+        <v>473</v>
+      </c>
+      <c r="N149">
+        <v>80</v>
+      </c>
+      <c r="O149">
+        <v>333</v>
+      </c>
+      <c r="P149" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A150" t="s">
+        <v>656</v>
+      </c>
+      <c r="D150">
+        <v>100</v>
+      </c>
+      <c r="E150">
+        <v>1500</v>
+      </c>
+      <c r="F150">
+        <v>5</v>
+      </c>
+      <c r="G150" t="s">
+        <v>274</v>
+      </c>
+      <c r="H150">
+        <v>3</v>
+      </c>
+      <c r="K150">
+        <v>100</v>
+      </c>
+      <c r="L150">
+        <v>1.0882099999999999</v>
+      </c>
+      <c r="M150" t="s">
+        <v>476</v>
+      </c>
+      <c r="N150">
+        <v>96</v>
+      </c>
+      <c r="O150">
+        <v>326</v>
+      </c>
+      <c r="P150" t="s">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A151" t="s">
+        <v>657</v>
+      </c>
+      <c r="D151">
+        <v>100</v>
+      </c>
+      <c r="E151">
+        <v>2000</v>
+      </c>
+      <c r="F151">
+        <v>5</v>
+      </c>
+      <c r="G151" t="s">
+        <v>274</v>
+      </c>
+      <c r="H151">
+        <v>3</v>
+      </c>
+      <c r="K151">
+        <v>100</v>
+      </c>
+      <c r="L151">
+        <v>1.175276</v>
+      </c>
+      <c r="M151" t="s">
+        <v>662</v>
+      </c>
+      <c r="N151">
+        <v>76</v>
+      </c>
+      <c r="O151">
+        <v>362</v>
+      </c>
+      <c r="P151" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A152" t="s">
+        <v>664</v>
+      </c>
+      <c r="D152">
+        <v>100</v>
+      </c>
+      <c r="E152">
+        <v>0</v>
+      </c>
+      <c r="F152">
+        <v>5</v>
+      </c>
+      <c r="G152" t="s">
+        <v>274</v>
+      </c>
+      <c r="H152">
+        <v>6</v>
+      </c>
+      <c r="K152">
+        <v>100</v>
+      </c>
+      <c r="L152">
+        <v>2.0562990000000001</v>
+      </c>
+      <c r="M152" t="s">
+        <v>443</v>
+      </c>
+      <c r="N152">
+        <v>84</v>
+      </c>
+      <c r="O152">
+        <v>316</v>
+      </c>
+      <c r="P152" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A153" t="s">
+        <v>665</v>
+      </c>
+      <c r="D153">
+        <v>100</v>
+      </c>
+      <c r="E153">
+        <v>500</v>
+      </c>
+      <c r="F153">
+        <v>5</v>
+      </c>
+      <c r="G153" t="s">
+        <v>274</v>
+      </c>
+      <c r="H153">
+        <v>6</v>
+      </c>
+      <c r="K153">
+        <v>100</v>
+      </c>
+      <c r="L153">
+        <v>2.3575620000000002</v>
+      </c>
+      <c r="M153" t="s">
+        <v>444</v>
+      </c>
+      <c r="N153">
+        <v>90</v>
+      </c>
+      <c r="O153">
+        <v>326</v>
+      </c>
+      <c r="P153" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A154" t="s">
+        <v>666</v>
+      </c>
+      <c r="D154">
+        <v>100</v>
+      </c>
+      <c r="E154">
+        <v>1000</v>
+      </c>
+      <c r="F154">
+        <v>5</v>
+      </c>
+      <c r="G154" t="s">
+        <v>274</v>
+      </c>
+      <c r="H154">
+        <v>6</v>
+      </c>
+      <c r="K154">
+        <v>100</v>
+      </c>
+      <c r="L154">
+        <v>2.3663099999999999</v>
+      </c>
+      <c r="M154" t="s">
+        <v>671</v>
+      </c>
+      <c r="N154">
+        <v>88</v>
+      </c>
+      <c r="O154">
+        <v>333</v>
+      </c>
+      <c r="P154" t="s">
+        <v>672</v>
+      </c>
+    </row>
+    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A155" t="s">
+        <v>667</v>
+      </c>
+      <c r="D155">
+        <v>100</v>
+      </c>
+      <c r="E155">
+        <v>1500</v>
+      </c>
+      <c r="F155">
+        <v>5</v>
+      </c>
+      <c r="G155" t="s">
+        <v>274</v>
+      </c>
+      <c r="H155">
+        <v>6</v>
+      </c>
+      <c r="K155">
+        <v>100</v>
+      </c>
+      <c r="L155">
+        <v>2.3532709999999999</v>
+      </c>
+      <c r="M155" t="s">
+        <v>673</v>
+      </c>
+      <c r="N155">
+        <v>91</v>
+      </c>
+      <c r="O155">
+        <v>320</v>
+      </c>
+      <c r="P155" t="s">
+        <v>674</v>
+      </c>
+    </row>
+    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A156" t="s">
+        <v>668</v>
+      </c>
+      <c r="D156">
+        <v>100</v>
+      </c>
+      <c r="E156">
+        <v>2000</v>
+      </c>
+      <c r="F156">
+        <v>5</v>
+      </c>
+      <c r="G156" t="s">
+        <v>274</v>
+      </c>
+      <c r="H156">
+        <v>6</v>
+      </c>
+      <c r="K156">
+        <v>100</v>
+      </c>
+      <c r="L156">
+        <v>2.3988390000000002</v>
+      </c>
+      <c r="M156" t="s">
+        <v>485</v>
+      </c>
+      <c r="N156">
+        <v>81</v>
+      </c>
+      <c r="O156">
+        <v>356</v>
+      </c>
+      <c r="P156" t="s">
+        <v>675</v>
+      </c>
+    </row>
+    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A157" t="s">
+        <v>676</v>
+      </c>
+      <c r="D157">
+        <v>100</v>
+      </c>
+      <c r="E157">
+        <v>0</v>
+      </c>
+      <c r="F157">
+        <v>5</v>
+      </c>
+      <c r="G157" t="s">
+        <v>274</v>
+      </c>
+      <c r="H157">
+        <v>9</v>
+      </c>
+      <c r="K157">
+        <v>100</v>
+      </c>
+      <c r="L157">
+        <v>3.0289959999999998</v>
+      </c>
+      <c r="M157" t="s">
+        <v>444</v>
+      </c>
+      <c r="N157">
+        <v>90</v>
+      </c>
+      <c r="O157">
+        <v>326</v>
+      </c>
+      <c r="P157" t="s">
+        <v>681</v>
+      </c>
+    </row>
+    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A158" t="s">
+        <v>677</v>
+      </c>
+      <c r="D158">
+        <v>100</v>
+      </c>
+      <c r="E158">
+        <v>500</v>
+      </c>
+      <c r="F158">
+        <v>5</v>
+      </c>
+      <c r="G158" t="s">
+        <v>274</v>
+      </c>
+      <c r="H158">
+        <v>9</v>
+      </c>
+      <c r="K158">
+        <v>100</v>
+      </c>
+      <c r="L158">
+        <v>3.0075829999999999</v>
+      </c>
+      <c r="M158" t="s">
+        <v>682</v>
+      </c>
+      <c r="N158">
+        <v>96</v>
+      </c>
+      <c r="O158">
+        <v>362</v>
+      </c>
+      <c r="P158" t="s">
+        <v>683</v>
+      </c>
+    </row>
+    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A159" t="s">
+        <v>678</v>
+      </c>
+      <c r="D159">
+        <v>100</v>
+      </c>
+      <c r="E159">
+        <v>1000</v>
+      </c>
+      <c r="F159">
+        <v>5</v>
+      </c>
+      <c r="G159" t="s">
+        <v>274</v>
+      </c>
+      <c r="H159">
+        <v>9</v>
+      </c>
+      <c r="K159">
+        <v>100</v>
+      </c>
+      <c r="L159">
+        <v>3.0216880000000002</v>
+      </c>
+      <c r="M159" t="s">
+        <v>684</v>
+      </c>
+      <c r="N159">
+        <v>92</v>
+      </c>
+      <c r="O159">
+        <v>388</v>
+      </c>
+      <c r="P159" t="s">
+        <v>685</v>
+      </c>
+    </row>
+    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A160" t="s">
+        <v>679</v>
+      </c>
+      <c r="D160">
+        <v>100</v>
+      </c>
+      <c r="E160">
+        <v>1500</v>
+      </c>
+      <c r="F160">
+        <v>5</v>
+      </c>
+      <c r="G160" t="s">
+        <v>274</v>
+      </c>
+      <c r="H160">
+        <v>9</v>
+      </c>
+      <c r="K160">
+        <v>100</v>
+      </c>
+      <c r="L160">
+        <v>3.0520390000000002</v>
+      </c>
+      <c r="M160" t="s">
+        <v>686</v>
+      </c>
+      <c r="N160">
+        <v>84</v>
+      </c>
+      <c r="O160">
+        <v>352</v>
+      </c>
+      <c r="P160" t="s">
+        <v>687</v>
+      </c>
+    </row>
+    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A161" t="s">
+        <v>680</v>
+      </c>
+      <c r="D161">
+        <v>100</v>
+      </c>
+      <c r="E161">
+        <v>2000</v>
+      </c>
+      <c r="F161">
+        <v>5</v>
+      </c>
+      <c r="G161" t="s">
+        <v>274</v>
+      </c>
+      <c r="H161">
+        <v>9</v>
+      </c>
+      <c r="K161">
+        <v>100</v>
+      </c>
+      <c r="L161">
+        <v>2.9974210000000001</v>
+      </c>
+      <c r="M161" t="s">
+        <v>488</v>
+      </c>
+      <c r="N161">
+        <v>99</v>
+      </c>
+      <c r="O161">
+        <v>341</v>
+      </c>
+      <c r="P161" t="s">
+        <v>688</v>
+      </c>
+    </row>
+    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A162" t="s">
+        <v>689</v>
+      </c>
+      <c r="D162">
+        <v>100</v>
+      </c>
+      <c r="E162">
+        <v>0</v>
+      </c>
+      <c r="F162">
+        <v>15</v>
+      </c>
+      <c r="G162" t="s">
+        <v>274</v>
+      </c>
+      <c r="H162">
+        <v>3</v>
+      </c>
+      <c r="K162">
+        <v>100</v>
+      </c>
+      <c r="L162">
+        <v>3.3348589999999998</v>
+      </c>
+      <c r="M162" t="s">
+        <v>445</v>
+      </c>
+      <c r="N162">
+        <v>90</v>
+      </c>
+      <c r="O162">
+        <v>336</v>
+      </c>
+      <c r="P162" t="s">
+        <v>694</v>
+      </c>
+    </row>
+    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A163" t="s">
+        <v>690</v>
+      </c>
+      <c r="D163">
+        <v>100</v>
+      </c>
+      <c r="E163">
+        <v>500</v>
+      </c>
+      <c r="F163">
+        <v>15</v>
+      </c>
+      <c r="G163" t="s">
+        <v>274</v>
+      </c>
+      <c r="H163">
+        <v>3</v>
+      </c>
+      <c r="K163">
+        <v>100</v>
+      </c>
+      <c r="L163">
+        <v>3.231652</v>
+      </c>
+      <c r="M163" t="s">
+        <v>695</v>
+      </c>
+      <c r="N163">
+        <v>91</v>
+      </c>
+      <c r="O163">
+        <v>368</v>
+      </c>
+      <c r="P163" t="s">
+        <v>696</v>
+      </c>
+    </row>
+    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A164" t="s">
+        <v>691</v>
+      </c>
+      <c r="D164">
+        <v>100</v>
+      </c>
+      <c r="E164">
+        <v>1000</v>
+      </c>
+      <c r="F164">
+        <v>15</v>
+      </c>
+      <c r="G164" t="s">
+        <v>274</v>
+      </c>
+      <c r="H164">
+        <v>3</v>
+      </c>
+      <c r="K164">
+        <v>100</v>
+      </c>
+      <c r="L164">
+        <v>3.231652</v>
+      </c>
+      <c r="M164" t="s">
+        <v>492</v>
+      </c>
+      <c r="N164">
+        <v>99</v>
+      </c>
+      <c r="O164">
+        <v>361</v>
+      </c>
+      <c r="P164" t="s">
+        <v>697</v>
+      </c>
+    </row>
+    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A165" t="s">
+        <v>692</v>
+      </c>
+      <c r="D165">
+        <v>100</v>
+      </c>
+      <c r="E165">
+        <v>1500</v>
+      </c>
+      <c r="F165">
+        <v>15</v>
+      </c>
+      <c r="G165" t="s">
+        <v>274</v>
+      </c>
+      <c r="H165">
+        <v>3</v>
+      </c>
+      <c r="K165">
+        <v>100</v>
+      </c>
+      <c r="L165">
+        <v>3.3723320000000001</v>
+      </c>
+      <c r="M165" t="s">
+        <v>698</v>
+      </c>
+      <c r="N165">
+        <v>87</v>
+      </c>
+      <c r="O165">
+        <v>340</v>
+      </c>
+      <c r="P165" t="s">
+        <v>699</v>
+      </c>
+    </row>
+    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A166" t="s">
+        <v>693</v>
+      </c>
+      <c r="D166">
+        <v>100</v>
+      </c>
+      <c r="E166">
+        <v>2000</v>
+      </c>
+      <c r="F166">
+        <v>15</v>
+      </c>
+      <c r="G166" t="s">
+        <v>274</v>
+      </c>
+      <c r="H166">
+        <v>3</v>
+      </c>
+      <c r="K166">
+        <v>100</v>
+      </c>
+      <c r="L166">
+        <v>3.242496</v>
+      </c>
+      <c r="M166" t="s">
+        <v>700</v>
+      </c>
+      <c r="N166">
+        <v>98</v>
+      </c>
+      <c r="O166">
+        <v>354</v>
+      </c>
+      <c r="P166" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A167" t="s">
+        <v>702</v>
+      </c>
+      <c r="D167">
+        <v>100</v>
+      </c>
+      <c r="E167">
+        <v>0</v>
+      </c>
+      <c r="F167">
+        <v>30</v>
+      </c>
+      <c r="G167" t="s">
+        <v>274</v>
+      </c>
+      <c r="H167">
+        <v>3</v>
+      </c>
+      <c r="K167">
+        <v>100</v>
+      </c>
+      <c r="L167">
+        <v>6.8500670000000001</v>
+      </c>
+      <c r="M167" t="s">
+        <v>709</v>
+      </c>
+      <c r="N167">
+        <v>83</v>
+      </c>
+      <c r="O167">
+        <v>344</v>
+      </c>
+      <c r="P167" t="s">
+        <v>710</v>
+      </c>
+    </row>
+    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A168" t="s">
+        <v>703</v>
+      </c>
+      <c r="D168">
+        <v>100</v>
+      </c>
+      <c r="E168">
+        <v>500</v>
+      </c>
+      <c r="F168">
+        <v>30</v>
+      </c>
+      <c r="G168" t="s">
+        <v>274</v>
+      </c>
+      <c r="H168">
+        <v>3</v>
+      </c>
+      <c r="K168">
+        <v>100</v>
+      </c>
+      <c r="L168">
+        <v>6.4849930000000002</v>
+      </c>
+      <c r="M168" t="s">
+        <v>711</v>
+      </c>
+      <c r="N168">
+        <v>98</v>
+      </c>
+      <c r="O168">
+        <v>346</v>
+      </c>
+      <c r="P168" t="s">
+        <v>712</v>
+      </c>
+    </row>
+    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A169" t="s">
+        <v>704</v>
+      </c>
+      <c r="D169">
+        <v>100</v>
+      </c>
+      <c r="E169">
+        <v>1000</v>
+      </c>
+      <c r="F169">
+        <v>30</v>
+      </c>
+      <c r="G169" t="s">
+        <v>274</v>
+      </c>
+      <c r="H169">
+        <v>3</v>
+      </c>
+      <c r="K169">
+        <v>100</v>
+      </c>
+      <c r="L169">
+        <v>6.4849930000000002</v>
+      </c>
+      <c r="M169" t="s">
+        <v>713</v>
+      </c>
+      <c r="N169">
+        <v>98</v>
+      </c>
+      <c r="O169">
+        <v>376</v>
+      </c>
+      <c r="P169" t="s">
+        <v>714</v>
+      </c>
+    </row>
+    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A170" t="s">
+        <v>705</v>
+      </c>
+      <c r="D170">
+        <v>100</v>
+      </c>
+      <c r="E170">
+        <v>1500</v>
+      </c>
+      <c r="F170">
+        <v>30</v>
+      </c>
+      <c r="G170" t="s">
+        <v>274</v>
+      </c>
+      <c r="H170">
+        <v>3</v>
+      </c>
+      <c r="K170">
+        <v>100</v>
+      </c>
+      <c r="L170">
+        <v>6.6943289999999998</v>
+      </c>
+      <c r="M170" t="s">
+        <v>715</v>
+      </c>
+      <c r="N170">
+        <v>89</v>
+      </c>
+      <c r="O170">
+        <v>408</v>
+      </c>
+      <c r="P170" t="s">
+        <v>716</v>
+      </c>
+    </row>
+    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A171" t="s">
+        <v>706</v>
+      </c>
+      <c r="D171">
+        <v>100</v>
+      </c>
+      <c r="E171">
+        <v>2000</v>
+      </c>
+      <c r="F171">
+        <v>30</v>
+      </c>
+      <c r="G171" t="s">
+        <v>274</v>
+      </c>
+      <c r="H171">
+        <v>3</v>
+      </c>
+      <c r="K171">
+        <v>100</v>
+      </c>
+      <c r="L171">
+        <v>6.5292599999999998</v>
+      </c>
+      <c r="M171" t="s">
+        <v>707</v>
+      </c>
+      <c r="N171">
+        <v>96</v>
+      </c>
+      <c r="O171">
+        <v>364</v>
+      </c>
+      <c r="P171" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A173" t="s">
+        <v>722</v>
+      </c>
+    </row>
+    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A174" t="s">
+        <v>758</v>
+      </c>
+    </row>
+    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A175" t="s">
+        <v>759</v>
+      </c>
+    </row>
+    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A177" t="s">
+        <v>717</v>
+      </c>
+      <c r="D177">
+        <v>5000</v>
+      </c>
+      <c r="E177">
+        <v>0</v>
+      </c>
+      <c r="F177">
+        <v>5</v>
+      </c>
+      <c r="G177" t="s">
+        <v>274</v>
+      </c>
+      <c r="H177">
+        <v>9</v>
+      </c>
+      <c r="K177">
+        <v>5000</v>
+      </c>
+      <c r="L177">
+        <v>1.9488239999999999</v>
+      </c>
+      <c r="M177" t="s">
+        <v>725</v>
+      </c>
+      <c r="N177">
+        <v>4816</v>
+      </c>
+      <c r="O177">
+        <v>246</v>
+      </c>
+      <c r="P177" t="s">
+        <v>726</v>
+      </c>
+    </row>
+    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A178" t="s">
+        <v>718</v>
+      </c>
+      <c r="D178">
+        <v>5000</v>
+      </c>
+      <c r="E178">
+        <v>500</v>
+      </c>
+      <c r="F178">
+        <v>5</v>
+      </c>
+      <c r="G178" t="s">
+        <v>274</v>
+      </c>
+      <c r="H178">
+        <v>9</v>
+      </c>
+      <c r="K178">
+        <v>5000</v>
+      </c>
+      <c r="L178">
+        <v>1.9443360000000001</v>
+      </c>
+      <c r="M178" t="s">
+        <v>723</v>
+      </c>
+      <c r="N178">
+        <v>4917</v>
+      </c>
+      <c r="O178">
+        <v>228</v>
+      </c>
+      <c r="P178" t="s">
+        <v>724</v>
+      </c>
+    </row>
+    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A179" t="s">
+        <v>719</v>
+      </c>
+      <c r="D179">
+        <v>5000</v>
+      </c>
+      <c r="E179">
+        <v>1000</v>
+      </c>
+      <c r="F179">
+        <v>5</v>
+      </c>
+      <c r="G179" t="s">
+        <v>274</v>
+      </c>
+      <c r="H179">
+        <v>9</v>
+      </c>
+      <c r="K179">
+        <v>5000</v>
+      </c>
+      <c r="L179">
+        <v>1.9415880000000001</v>
+      </c>
+      <c r="M179" t="s">
+        <v>727</v>
+      </c>
+      <c r="N179">
+        <v>4980</v>
+      </c>
+      <c r="O179">
+        <v>247</v>
+      </c>
+      <c r="P179" t="s">
+        <v>728</v>
+      </c>
+    </row>
+    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A180" t="s">
+        <v>720</v>
+      </c>
+      <c r="D180">
+        <v>5000</v>
+      </c>
+      <c r="E180">
+        <v>1500</v>
+      </c>
+      <c r="F180">
+        <v>5</v>
+      </c>
+      <c r="G180" t="s">
+        <v>274</v>
+      </c>
+      <c r="H180">
+        <v>9</v>
+      </c>
+      <c r="K180">
+        <v>5000</v>
+      </c>
+      <c r="L180">
+        <v>1.9412849999999999</v>
+      </c>
+      <c r="M180" t="s">
+        <v>729</v>
+      </c>
+      <c r="N180">
+        <v>4987</v>
+      </c>
+      <c r="O180">
+        <v>242</v>
+      </c>
+      <c r="P180" t="s">
+        <v>730</v>
+      </c>
+    </row>
+    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A181" t="s">
+        <v>721</v>
+      </c>
+      <c r="D181">
+        <v>5000</v>
+      </c>
+      <c r="E181">
+        <v>2000</v>
+      </c>
+      <c r="F181">
+        <v>5</v>
+      </c>
+      <c r="G181" t="s">
+        <v>274</v>
+      </c>
+      <c r="H181">
+        <v>9</v>
+      </c>
+      <c r="K181">
+        <v>5000</v>
+      </c>
+      <c r="L181">
+        <v>1.9413279999999999</v>
+      </c>
+      <c r="M181" t="s">
+        <v>731</v>
+      </c>
+      <c r="N181">
+        <v>4986</v>
+      </c>
+      <c r="O181">
+        <v>249</v>
+      </c>
+      <c r="P181" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O182">
+        <f>AVERAGE(O177:O181)</f>
+        <v>242.4</v>
+      </c>
+    </row>
+    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A185" t="s">
+        <v>717</v>
+      </c>
+      <c r="D185">
+        <v>5000</v>
+      </c>
+      <c r="E185">
+        <v>0</v>
+      </c>
+      <c r="F185">
+        <v>5</v>
+      </c>
+      <c r="G185" t="s">
+        <v>274</v>
+      </c>
+      <c r="H185">
+        <v>6</v>
+      </c>
+      <c r="K185">
+        <v>5000</v>
+      </c>
+      <c r="L185">
+        <v>1.209136</v>
+      </c>
+      <c r="M185" t="s">
+        <v>733</v>
+      </c>
+      <c r="N185">
+        <v>4884</v>
+      </c>
+      <c r="O185">
+        <v>252</v>
+      </c>
+      <c r="P185" t="s">
+        <v>734</v>
+      </c>
+    </row>
+    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A186" t="s">
+        <v>718</v>
+      </c>
+      <c r="D186">
+        <v>5000</v>
+      </c>
+      <c r="E186">
+        <v>500</v>
+      </c>
+      <c r="F186">
+        <v>5</v>
+      </c>
+      <c r="G186" t="s">
+        <v>274</v>
+      </c>
+      <c r="H186">
+        <v>6</v>
+      </c>
+      <c r="K186">
+        <v>5000</v>
+      </c>
+      <c r="L186">
+        <v>1.2190890000000001</v>
+      </c>
+      <c r="M186" t="s">
+        <v>735</v>
+      </c>
+      <c r="N186">
+        <v>4759</v>
+      </c>
+      <c r="O186">
+        <v>233</v>
+      </c>
+      <c r="P186" t="s">
+        <v>736</v>
+      </c>
+    </row>
+    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A187" t="s">
+        <v>719</v>
+      </c>
+      <c r="D187">
+        <v>5000</v>
+      </c>
+      <c r="E187">
+        <v>1000</v>
+      </c>
+      <c r="F187">
+        <v>5</v>
+      </c>
+      <c r="G187" t="s">
+        <v>274</v>
+      </c>
+      <c r="H187">
+        <v>6</v>
+      </c>
+      <c r="K187">
+        <v>5000</v>
+      </c>
+      <c r="L187">
+        <v>1.2146220000000001</v>
+      </c>
+      <c r="M187" t="s">
+        <v>737</v>
+      </c>
+      <c r="N187">
+        <v>4865</v>
+      </c>
+      <c r="O187">
+        <v>242</v>
+      </c>
+      <c r="P187" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A188" t="s">
+        <v>720</v>
+      </c>
+      <c r="D188">
+        <v>5000</v>
+      </c>
+      <c r="E188">
+        <v>1500</v>
+      </c>
+      <c r="F188">
+        <v>5</v>
+      </c>
+      <c r="G188" t="s">
+        <v>274</v>
+      </c>
+      <c r="H188">
+        <v>6</v>
+      </c>
+      <c r="K188">
+        <v>5000</v>
+      </c>
+      <c r="L188">
+        <v>1.2140409999999999</v>
+      </c>
+      <c r="M188" t="s">
+        <v>739</v>
+      </c>
+      <c r="N188">
+        <v>4879</v>
+      </c>
+      <c r="O188">
+        <v>215</v>
+      </c>
+      <c r="P188" t="s">
+        <v>740</v>
+      </c>
+    </row>
+    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A189" t="s">
+        <v>721</v>
+      </c>
+      <c r="D189">
+        <v>5000</v>
+      </c>
+      <c r="E189">
+        <v>2000</v>
+      </c>
+      <c r="F189">
+        <v>5</v>
+      </c>
+      <c r="G189" t="s">
+        <v>274</v>
+      </c>
+      <c r="H189">
+        <v>6</v>
+      </c>
+      <c r="K189">
+        <v>5000</v>
+      </c>
+      <c r="L189">
+        <v>1.2101869999999999</v>
+      </c>
+      <c r="M189" t="s">
+        <v>741</v>
+      </c>
+      <c r="N189">
+        <v>4973</v>
+      </c>
+      <c r="O189">
+        <v>230</v>
+      </c>
+      <c r="P189" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O190">
+        <f>AVERAGE(O185:O189)</f>
+        <v>234.4</v>
+      </c>
+    </row>
+    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A192" t="s">
+        <v>743</v>
+      </c>
+      <c r="D192">
+        <v>5000</v>
+      </c>
+      <c r="E192">
+        <v>0</v>
+      </c>
+      <c r="F192">
+        <v>5</v>
+      </c>
+      <c r="G192" t="s">
+        <v>274</v>
+      </c>
+      <c r="H192">
+        <v>3</v>
+      </c>
+      <c r="K192">
+        <v>5000</v>
+      </c>
+      <c r="L192">
+        <v>0.47477629999999998</v>
+      </c>
+      <c r="M192" t="s">
+        <v>505</v>
+      </c>
+      <c r="N192">
+        <v>1167</v>
+      </c>
+      <c r="O192">
+        <v>245</v>
+      </c>
+      <c r="P192" t="s">
+        <v>748</v>
+      </c>
+    </row>
+    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A193" t="s">
+        <v>744</v>
+      </c>
+      <c r="D193">
+        <v>5000</v>
+      </c>
+      <c r="E193">
+        <v>500</v>
+      </c>
+      <c r="F193">
+        <v>5</v>
+      </c>
+      <c r="G193" t="s">
+        <v>274</v>
+      </c>
+      <c r="H193">
+        <v>3</v>
+      </c>
+      <c r="K193">
+        <v>5000</v>
+      </c>
+      <c r="L193">
+        <v>0.45030019999999998</v>
+      </c>
+      <c r="M193" t="s">
+        <v>749</v>
+      </c>
+      <c r="N193">
+        <v>1368</v>
+      </c>
+      <c r="O193">
+        <v>240</v>
+      </c>
+      <c r="P193" t="s">
+        <v>750</v>
+      </c>
+    </row>
+    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A194" t="s">
+        <v>745</v>
+      </c>
+      <c r="D194">
+        <v>5000</v>
+      </c>
+      <c r="E194">
+        <v>1000</v>
+      </c>
+      <c r="F194">
+        <v>5</v>
+      </c>
+      <c r="G194" t="s">
+        <v>274</v>
+      </c>
+      <c r="H194">
+        <v>3</v>
+      </c>
+      <c r="K194">
+        <v>5000</v>
+      </c>
+      <c r="L194">
+        <v>0.40159119999999998</v>
+      </c>
+      <c r="M194" t="s">
+        <v>751</v>
+      </c>
+      <c r="N194">
+        <v>1929</v>
+      </c>
+      <c r="O194">
+        <v>232</v>
+      </c>
+      <c r="P194" t="s">
+        <v>752</v>
+      </c>
+    </row>
+    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A195" t="s">
+        <v>746</v>
+      </c>
+      <c r="D195">
+        <v>5000</v>
+      </c>
+      <c r="E195">
+        <v>1500</v>
+      </c>
+      <c r="F195">
+        <v>5</v>
+      </c>
+      <c r="G195" t="s">
+        <v>274</v>
+      </c>
+      <c r="H195">
+        <v>3</v>
+      </c>
+      <c r="K195">
+        <v>5000</v>
+      </c>
+      <c r="L195">
+        <v>0.40000849999999999</v>
+      </c>
+      <c r="M195" t="s">
+        <v>753</v>
+      </c>
+      <c r="N195">
+        <v>1952</v>
+      </c>
+      <c r="O195">
+        <v>241</v>
+      </c>
+      <c r="P195" t="s">
+        <v>754</v>
+      </c>
+    </row>
+    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A196" t="s">
+        <v>747</v>
+      </c>
+      <c r="D196">
+        <v>5000</v>
+      </c>
+      <c r="E196">
+        <v>2000</v>
+      </c>
+      <c r="F196">
+        <v>5</v>
+      </c>
+      <c r="G196" t="s">
+        <v>274</v>
+      </c>
+      <c r="H196">
+        <v>3</v>
+      </c>
+      <c r="K196">
+        <v>5000</v>
+      </c>
+      <c r="L196">
+        <v>0.39946379999999998</v>
+      </c>
+      <c r="M196" s="6" t="s">
+        <v>755</v>
+      </c>
+      <c r="N196">
+        <v>1960</v>
+      </c>
+      <c r="O196">
+        <v>252</v>
+      </c>
+      <c r="P196" t="s">
+        <v>756</v>
+      </c>
+    </row>
+    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="O197">
+        <f>AVERAGE(O192:O196)</f>
+        <v>242</v>
+      </c>
+    </row>
+    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+      <c r="A199" t="s">
+        <v>757</v>
+      </c>
+    </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
 </worksheet>
 </file>
--- a/Trabalho 2/Meta 2/Resultados.xlsx
+++ b/Trabalho 2/Meta 2/Resultados.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="22624"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10413"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\joaop\Documents\GitHub\Projeto-IAA\Trabalho 2\Meta 2\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/amserra/Documents/GitHub/Projeto-IIA/Trabalho 2/Meta 2/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{485BBED6-A9C4-4840-AA54-B45211FBD8CF}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B6B52B21-4E2B-1A4E-814E-90D8C48E5F4C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="13176" firstSheet="1" activeTab="6" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="33600" windowHeight="15040" activeTab="2" xr2:uid="{1C22F075-1BF0-EA43-8A90-9BDC22ECA8ED}"/>
   </bookViews>
   <sheets>
     <sheet name="NoObstacles" sheetId="1" r:id="rId1"/>
@@ -39,7 +39,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1552" uniqueCount="760">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1684" uniqueCount="841">
   <si>
     <t>Trepa Colinas</t>
   </si>
@@ -2319,6 +2319,249 @@
   </si>
   <si>
     <t>Se a Tinicial for muito alta, chegamos ao fim com uma tfinal também muito alta. Se dimiuirmos muito o D passamos a ter um comportamento próximo do Fast Annealing</t>
+  </si>
+  <si>
+    <t>Testar com a que teve melhor resultados na adaptatove, T=100 000 e alfa = 0.5</t>
+  </si>
+  <si>
+    <t>25120609AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 2 6 7 3 12 8 4 11 9 10 5</t>
+  </si>
+  <si>
+    <t>Temp best sol</t>
+  </si>
+  <si>
+    <t>0.001490116</t>
+  </si>
+  <si>
+    <t>0.01192093</t>
+  </si>
+  <si>
+    <t>1 8 5 3 12 4 11 2 6 9 7 10</t>
+  </si>
+  <si>
+    <t>25120829AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>3 8 4 11 12 5 10 7 1 2 9 6</t>
+  </si>
+  <si>
+    <t>4.656613E-05</t>
+  </si>
+  <si>
+    <t>25120941AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>11 2 3 7 6 1 9 10 5 4 8 12</t>
+  </si>
+  <si>
+    <t>0.005960464</t>
+  </si>
+  <si>
+    <t>25121047AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 11 2 6 4 8 12 3 10 7 9 5</t>
+  </si>
+  <si>
+    <t>2.910383E-06</t>
+  </si>
+  <si>
+    <t>25121129AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 6 9 7 3 12 8 4 11 2 10 5</t>
+  </si>
+  <si>
+    <t>25121254AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>9.313226E-05</t>
+  </si>
+  <si>
+    <t>9 5 3 12 8 4 11 2 1 6 7 10</t>
+  </si>
+  <si>
+    <t>0.000372529</t>
+  </si>
+  <si>
+    <t>25121415AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>11 4 8 12 3 5 10 7 9 6 1 2</t>
+  </si>
+  <si>
+    <t>2.273737E-08</t>
+  </si>
+  <si>
+    <t>25121503AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>4 2 11 1 6 9 7 10 5 3 12 8</t>
+  </si>
+  <si>
+    <t>2.842171E-09</t>
+  </si>
+  <si>
+    <t>25121539AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 6 2 11 4 8 12 3 5 10 7 9</t>
+  </si>
+  <si>
+    <t>1.776357E-10</t>
+  </si>
+  <si>
+    <t>25121619AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25121709AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25121735AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25121802AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>4 11 2 1 6 9 7 10 5 3 12 8</t>
+  </si>
+  <si>
+    <t>1.421085E-09</t>
+  </si>
+  <si>
+    <t>25121824AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25121916AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25121937AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25122011AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25122033AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 2 11 4 6 9 7 10 5 3 12 8</t>
+  </si>
+  <si>
+    <t>2.117582E-17</t>
+  </si>
+  <si>
+    <t>25122052AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25122209AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25122256AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>Com adaptative annealling os resultados foram (quase) sempre piores que o trepa colinas. A temperatura caiu muito rapido</t>
+  </si>
+  <si>
+    <t>Tentar com Tinicial = 5 e D = 6 para very fast annealling</t>
+  </si>
+  <si>
+    <t>11 2 1 6 9 5 3 10 7 12 4 8</t>
+  </si>
+  <si>
+    <t>2.357562</t>
+  </si>
+  <si>
+    <t>25123319AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 4 8 2 11 12 3 5 10 9 6 7</t>
+  </si>
+  <si>
+    <t>2.398839</t>
+  </si>
+  <si>
+    <t>25123451AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>10 7 6 2 11 4 8 3 9 1 12 5</t>
+  </si>
+  <si>
+    <t>2.349035</t>
+  </si>
+  <si>
+    <t>25123555AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>6 1 11 4 8 12 10 3 5 7 9 2</t>
+  </si>
+  <si>
+    <t>2.328622</t>
+  </si>
+  <si>
+    <t>25123655AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>9 1 6 5 10 7 8 12 3 11 2 4</t>
+  </si>
+  <si>
+    <t>2.332606</t>
+  </si>
+  <si>
+    <t>25123734AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>9 6 1 2 11 7 10 5 3 12 8 4</t>
+  </si>
+  <si>
+    <t>1.209136</t>
+  </si>
+  <si>
+    <t>25123903AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1.222234</t>
+  </si>
+  <si>
+    <t>1 2 11 4 8 12 3 5 10 7 9 6</t>
+  </si>
+  <si>
+    <t>25124005AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1.218025</t>
+  </si>
+  <si>
+    <t>25124125AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>2 11 4 8 12 3 10 7 5 9 6 1</t>
+  </si>
+  <si>
+    <t>1.209579</t>
+  </si>
+  <si>
+    <t>25124419AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>25124519AM_SimulatedAnnealingOptimiser.csv</t>
+  </si>
+  <si>
+    <t>1 6 7 9 2 11 4 8 12 3 5 10</t>
+  </si>
+  <si>
+    <t>1.212349</t>
+  </si>
+  <si>
+    <t>9 6 1 2 11 4 8 12 3 5 7 10</t>
+  </si>
+  <si>
+    <t>0.7340844</t>
+  </si>
+  <si>
+    <t>25124621AM_SimulatedAnnealingOptimiser.csv</t>
   </si>
 </sst>
 </file>
@@ -2716,24 +2959,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{32EE4A98-5085-D942-B5FB-10483C66A0A2}">
   <dimension ref="A1:P105"/>
   <sheetViews>
-    <sheetView topLeftCell="A14" workbookViewId="0">
+    <sheetView topLeftCell="A50" workbookViewId="0">
       <selection activeCell="G51" sqref="G51:I51"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="2" max="2" width="11.5" customWidth="1"/>
-    <col min="5" max="5" width="12.19921875" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="23.19921875" customWidth="1"/>
-    <col min="8" max="9" width="16.69921875" customWidth="1"/>
-    <col min="11" max="11" width="18.796875" customWidth="1"/>
-    <col min="13" max="13" width="10.796875" customWidth="1"/>
+    <col min="5" max="5" width="12.1640625" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="23.1640625" customWidth="1"/>
+    <col min="8" max="9" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.83203125" customWidth="1"/>
+    <col min="13" max="13" width="10.83203125" customWidth="1"/>
     <col min="14" max="14" width="12" customWidth="1"/>
-    <col min="15" max="15" width="43.296875" customWidth="1"/>
+    <col min="15" max="15" width="43.33203125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -2744,7 +2987,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -2770,7 +3013,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="3" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>3</v>
       </c>
@@ -2796,7 +3039,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="4" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>4</v>
       </c>
@@ -2822,7 +3065,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="5" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>16</v>
       </c>
@@ -2848,7 +3091,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="6" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>17</v>
       </c>
@@ -2874,7 +3117,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="7" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>18</v>
       </c>
@@ -2903,7 +3146,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="8" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>19</v>
       </c>
@@ -2929,7 +3172,7 @@
         <v>187</v>
       </c>
     </row>
-    <row r="9" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>20</v>
       </c>
@@ -2955,7 +3198,7 @@
         <v>188</v>
       </c>
     </row>
-    <row r="10" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>21</v>
       </c>
@@ -2981,7 +3224,7 @@
         <v>189</v>
       </c>
     </row>
-    <row r="11" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>22</v>
       </c>
@@ -3007,7 +3250,7 @@
         <v>190</v>
       </c>
     </row>
-    <row r="12" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>23</v>
       </c>
@@ -3033,7 +3276,7 @@
         <v>191</v>
       </c>
     </row>
-    <row r="13" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>86</v>
       </c>
@@ -3059,7 +3302,7 @@
         <v>192</v>
       </c>
     </row>
-    <row r="14" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>89</v>
       </c>
@@ -3085,7 +3328,7 @@
         <v>193</v>
       </c>
     </row>
-    <row r="15" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>150</v>
       </c>
@@ -3111,7 +3354,7 @@
         <v>194</v>
       </c>
     </row>
-    <row r="16" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>151</v>
       </c>
@@ -3137,7 +3380,7 @@
         <v>195</v>
       </c>
     </row>
-    <row r="17" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>186</v>
       </c>
@@ -3163,7 +3406,7 @@
         <v>196</v>
       </c>
     </row>
-    <row r="18" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>197</v>
       </c>
@@ -3189,7 +3432,7 @@
         <v>202</v>
       </c>
     </row>
-    <row r="19" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>198</v>
       </c>
@@ -3215,7 +3458,7 @@
         <v>203</v>
       </c>
     </row>
-    <row r="20" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>201</v>
       </c>
@@ -3241,7 +3484,7 @@
         <v>204</v>
       </c>
     </row>
-    <row r="21" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>199</v>
       </c>
@@ -3267,7 +3510,7 @@
         <v>206</v>
       </c>
     </row>
-    <row r="22" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>200</v>
       </c>
@@ -3293,7 +3536,7 @@
         <v>207</v>
       </c>
     </row>
-    <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="25" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A25" s="1" t="s">
         <v>0</v>
       </c>
@@ -3307,7 +3550,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="26" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D26" t="s">
         <v>5</v>
       </c>
@@ -3330,7 +3573,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="28" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>3</v>
       </c>
@@ -3356,7 +3599,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="29" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>4</v>
       </c>
@@ -3382,7 +3625,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>16</v>
       </c>
@@ -3408,7 +3651,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="31" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>17</v>
       </c>
@@ -3434,7 +3677,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="32" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>18</v>
       </c>
@@ -3463,7 +3706,7 @@
         <v>185</v>
       </c>
     </row>
-    <row r="33" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>19</v>
       </c>
@@ -3489,7 +3732,7 @@
         <v>208</v>
       </c>
     </row>
-    <row r="34" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>20</v>
       </c>
@@ -3515,7 +3758,7 @@
         <v>209</v>
       </c>
     </row>
-    <row r="35" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>21</v>
       </c>
@@ -3541,7 +3784,7 @@
         <v>210</v>
       </c>
     </row>
-    <row r="36" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>22</v>
       </c>
@@ -3567,7 +3810,7 @@
         <v>211</v>
       </c>
     </row>
-    <row r="37" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>23</v>
       </c>
@@ -3593,7 +3836,7 @@
         <v>212</v>
       </c>
     </row>
-    <row r="38" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>86</v>
       </c>
@@ -3619,7 +3862,7 @@
         <v>213</v>
       </c>
     </row>
-    <row r="39" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>89</v>
       </c>
@@ -3645,7 +3888,7 @@
         <v>214</v>
       </c>
     </row>
-    <row r="40" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>150</v>
       </c>
@@ -3671,7 +3914,7 @@
         <v>215</v>
       </c>
     </row>
-    <row r="41" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>151</v>
       </c>
@@ -3697,7 +3940,7 @@
         <v>216</v>
       </c>
     </row>
-    <row r="42" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>186</v>
       </c>
@@ -3723,7 +3966,7 @@
         <v>217</v>
       </c>
     </row>
-    <row r="43" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>197</v>
       </c>
@@ -3749,7 +3992,7 @@
         <v>218</v>
       </c>
     </row>
-    <row r="44" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>198</v>
       </c>
@@ -3775,7 +4018,7 @@
         <v>219</v>
       </c>
     </row>
-    <row r="45" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>201</v>
       </c>
@@ -3801,7 +4044,7 @@
         <v>220</v>
       </c>
     </row>
-    <row r="46" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>199</v>
       </c>
@@ -3827,7 +4070,7 @@
         <v>221</v>
       </c>
     </row>
-    <row r="47" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>200</v>
       </c>
@@ -3853,7 +4096,7 @@
         <v>222</v>
       </c>
     </row>
-    <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.4">
+    <row r="50" spans="1:16" ht="21" x14ac:dyDescent="0.25">
       <c r="A50" s="1" t="s">
         <v>156</v>
       </c>
@@ -3864,7 +4107,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="51" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:16" x14ac:dyDescent="0.2">
       <c r="D51" t="s">
         <v>5</v>
       </c>
@@ -3902,7 +4145,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="53" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="53" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A53" t="s">
         <v>3</v>
       </c>
@@ -3934,7 +4177,7 @@
         <v>233</v>
       </c>
     </row>
-    <row r="54" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A54" t="s">
         <v>4</v>
       </c>
@@ -3969,7 +4212,7 @@
         <v>236</v>
       </c>
     </row>
-    <row r="55" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A55" t="s">
         <v>16</v>
       </c>
@@ -4001,7 +4244,7 @@
         <v>237</v>
       </c>
     </row>
-    <row r="56" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>17</v>
       </c>
@@ -4033,7 +4276,7 @@
         <v>239</v>
       </c>
     </row>
-    <row r="57" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>18</v>
       </c>
@@ -4068,7 +4311,7 @@
         <v>241</v>
       </c>
     </row>
-    <row r="58" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>19</v>
       </c>
@@ -4100,7 +4343,7 @@
         <v>238</v>
       </c>
     </row>
-    <row r="59" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>20</v>
       </c>
@@ -4132,7 +4375,7 @@
         <v>243</v>
       </c>
     </row>
-    <row r="60" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>21</v>
       </c>
@@ -4164,7 +4407,7 @@
         <v>244</v>
       </c>
     </row>
-    <row r="61" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>22</v>
       </c>
@@ -4196,7 +4439,7 @@
         <v>245</v>
       </c>
     </row>
-    <row r="62" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A62" t="s">
         <v>23</v>
       </c>
@@ -4231,7 +4474,7 @@
         <v>247</v>
       </c>
     </row>
-    <row r="63" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A63" t="s">
         <v>86</v>
       </c>
@@ -4266,7 +4509,7 @@
         <v>260</v>
       </c>
     </row>
-    <row r="64" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A64" t="s">
         <v>89</v>
       </c>
@@ -4298,7 +4541,7 @@
         <v>256</v>
       </c>
     </row>
-    <row r="65" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>150</v>
       </c>
@@ -4330,7 +4573,7 @@
         <v>257</v>
       </c>
     </row>
-    <row r="66" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>151</v>
       </c>
@@ -4362,7 +4605,7 @@
         <v>258</v>
       </c>
     </row>
-    <row r="67" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>186</v>
       </c>
@@ -4394,7 +4637,7 @@
         <v>259</v>
       </c>
     </row>
-    <row r="68" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>197</v>
       </c>
@@ -4429,7 +4672,7 @@
         <v>261</v>
       </c>
     </row>
-    <row r="69" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>198</v>
       </c>
@@ -4461,7 +4704,7 @@
         <v>249</v>
       </c>
     </row>
-    <row r="70" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>201</v>
       </c>
@@ -4493,7 +4736,7 @@
         <v>250</v>
       </c>
     </row>
-    <row r="71" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>199</v>
       </c>
@@ -4525,7 +4768,7 @@
         <v>252</v>
       </c>
     </row>
-    <row r="72" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>200</v>
       </c>
@@ -4557,7 +4800,7 @@
         <v>253</v>
       </c>
     </row>
-    <row r="73" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>229</v>
       </c>
@@ -4592,7 +4835,7 @@
         <v>276</v>
       </c>
     </row>
-    <row r="74" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>262</v>
       </c>
@@ -4630,7 +4873,7 @@
         <v>278</v>
       </c>
     </row>
-    <row r="75" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>263</v>
       </c>
@@ -4665,7 +4908,7 @@
         <v>279</v>
       </c>
     </row>
-    <row r="76" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="76" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A76" t="s">
         <v>264</v>
       </c>
@@ -4700,7 +4943,7 @@
         <v>281</v>
       </c>
     </row>
-    <row r="77" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>265</v>
       </c>
@@ -4735,7 +4978,7 @@
         <v>280</v>
       </c>
     </row>
-    <row r="78" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>266</v>
       </c>
@@ -4773,7 +5016,7 @@
         <v>283</v>
       </c>
     </row>
-    <row r="79" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>267</v>
       </c>
@@ -4808,7 +5051,7 @@
         <v>284</v>
       </c>
     </row>
-    <row r="80" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A80" t="s">
         <v>268</v>
       </c>
@@ -4843,7 +5086,7 @@
         <v>285</v>
       </c>
     </row>
-    <row r="81" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>269</v>
       </c>
@@ -4878,7 +5121,7 @@
         <v>286</v>
       </c>
     </row>
-    <row r="82" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="82" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A82" t="s">
         <v>270</v>
       </c>
@@ -4913,7 +5156,7 @@
         <v>287</v>
       </c>
     </row>
-    <row r="83" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A83" t="s">
         <v>271</v>
       </c>
@@ -4948,7 +5191,7 @@
         <v>293</v>
       </c>
     </row>
-    <row r="84" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A84" t="s">
         <v>272</v>
       </c>
@@ -4983,7 +5226,7 @@
         <v>294</v>
       </c>
     </row>
-    <row r="85" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A85" t="s">
         <v>273</v>
       </c>
@@ -5018,7 +5261,7 @@
         <v>296</v>
       </c>
     </row>
-    <row r="86" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A86" t="s">
         <v>288</v>
       </c>
@@ -5053,7 +5296,7 @@
         <v>297</v>
       </c>
     </row>
-    <row r="87" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A87" t="s">
         <v>289</v>
       </c>
@@ -5088,7 +5331,7 @@
         <v>298</v>
       </c>
     </row>
-    <row r="88" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>300</v>
       </c>
@@ -5123,7 +5366,7 @@
         <v>299</v>
       </c>
     </row>
-    <row r="89" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>301</v>
       </c>
@@ -5158,7 +5401,7 @@
         <v>306</v>
       </c>
     </row>
-    <row r="90" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>302</v>
       </c>
@@ -5193,7 +5436,7 @@
         <v>307</v>
       </c>
     </row>
-    <row r="91" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>303</v>
       </c>
@@ -5228,7 +5471,7 @@
         <v>308</v>
       </c>
     </row>
-    <row r="92" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>304</v>
       </c>
@@ -5263,37 +5506,37 @@
         <v>305</v>
       </c>
     </row>
-    <row r="96" spans="1:15" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:15" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>34</v>
       </c>
     </row>
-    <row r="98" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>35</v>
       </c>
     </row>
-    <row r="99" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A99" t="s">
         <v>40</v>
       </c>
     </row>
-    <row r="100" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>41</v>
       </c>
     </row>
-    <row r="101" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>42</v>
       </c>
     </row>
-    <row r="103" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>242</v>
       </c>
     </row>
-    <row r="105" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A105" t="s">
         <v>254</v>
       </c>
@@ -5307,24 +5550,24 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A49132A7-82A8-6E4C-B1CF-2A3832962810}">
   <dimension ref="A1:M42"/>
   <sheetViews>
-    <sheetView topLeftCell="A21" workbookViewId="0">
-      <selection activeCell="A30" sqref="A30:M43"/>
+    <sheetView topLeftCell="A9" workbookViewId="0">
+      <selection activeCell="D48" sqref="D48"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="21.19921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="10.19921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="21.1640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="10.1640625" bestFit="1" customWidth="1"/>
     <col min="9" max="9" width="18" bestFit="1" customWidth="1"/>
     <col min="10" max="10" width="11.5" bestFit="1" customWidth="1"/>
-    <col min="11" max="11" width="36.19921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="11" max="11" width="36.1640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5335,7 +5578,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -5361,7 +5604,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5387,7 +5630,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5413,7 +5656,7 @@
         <v>46</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5439,7 +5682,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5465,7 +5708,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5491,7 +5734,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -5517,7 +5760,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -5546,7 +5789,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -5557,7 +5800,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -5583,7 +5826,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -5609,7 +5852,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -5635,7 +5878,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -5664,7 +5907,7 @@
         <v>62</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -5690,7 +5933,7 @@
         <v>61</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -5719,7 +5962,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="30" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A30" s="1" t="s">
         <v>156</v>
       </c>
@@ -5730,7 +5973,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D31" t="s">
         <v>5</v>
       </c>
@@ -5759,52 +6002,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>23</v>
       </c>
@@ -5817,19 +6060,21 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{519F7E59-2954-164D-AA32-F49AE80C1764}">
-  <dimension ref="A1:M66"/>
+  <dimension ref="A1:N105"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="L37" sqref="L37"/>
+    <sheetView tabSelected="1" topLeftCell="A83" workbookViewId="0">
+      <selection activeCell="L103" sqref="L103"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="8" max="8" width="22.5" customWidth="1"/>
-    <col min="11" max="11" width="35.19921875" customWidth="1"/>
+    <col min="9" max="9" width="22.33203125" customWidth="1"/>
+    <col min="12" max="12" width="35.1640625" customWidth="1"/>
+    <col min="13" max="13" width="36.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -5840,7 +6085,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -5859,14 +6104,14 @@
       <c r="J2" t="s">
         <v>11</v>
       </c>
-      <c r="K2" t="s">
+      <c r="L2" t="s">
         <v>12</v>
       </c>
-      <c r="L2" t="s">
+      <c r="M2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -5888,11 +6133,11 @@
       <c r="J4">
         <v>60</v>
       </c>
-      <c r="K4" t="s">
+      <c r="L4" t="s">
         <v>36</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -5914,11 +6159,11 @@
       <c r="J5">
         <v>67</v>
       </c>
-      <c r="K5" t="s">
+      <c r="L5" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -5940,11 +6185,11 @@
       <c r="J6">
         <v>50</v>
       </c>
-      <c r="K6" t="s">
+      <c r="L6" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -5966,11 +6211,11 @@
       <c r="J7">
         <v>58</v>
       </c>
-      <c r="K7" t="s">
+      <c r="L7" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -5992,11 +6237,11 @@
       <c r="J8">
         <v>58</v>
       </c>
-      <c r="K8" t="s">
+      <c r="L8" t="s">
         <v>223</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -6018,11 +6263,11 @@
       <c r="J9">
         <v>51</v>
       </c>
-      <c r="K9" t="s">
+      <c r="L9" t="s">
         <v>309</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -6044,11 +6289,11 @@
       <c r="J10">
         <v>49</v>
       </c>
-      <c r="K10" t="s">
+      <c r="L10" t="s">
         <v>312</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -6070,11 +6315,11 @@
       <c r="J11">
         <v>50</v>
       </c>
-      <c r="K11" t="s">
+      <c r="L11" t="s">
         <v>313</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -6096,11 +6341,11 @@
       <c r="J12">
         <v>55</v>
       </c>
-      <c r="K12" t="s">
+      <c r="L12" t="s">
         <v>314</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -6122,11 +6367,11 @@
       <c r="J13">
         <v>54</v>
       </c>
-      <c r="K13" t="s">
+      <c r="L13" t="s">
         <v>316</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -6148,11 +6393,11 @@
       <c r="J14">
         <v>46</v>
       </c>
-      <c r="K14" t="s">
+      <c r="L14" t="s">
         <v>318</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -6174,11 +6419,11 @@
       <c r="J15">
         <v>49</v>
       </c>
-      <c r="K15" t="s">
+      <c r="L15" t="s">
         <v>320</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -6200,11 +6445,11 @@
       <c r="J16">
         <v>50</v>
       </c>
-      <c r="K16" t="s">
+      <c r="L16" t="s">
         <v>321</v>
       </c>
     </row>
-    <row r="17" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>151</v>
       </c>
@@ -6226,11 +6471,11 @@
       <c r="J17">
         <v>55</v>
       </c>
-      <c r="K17" t="s">
+      <c r="L17" t="s">
         <v>324</v>
       </c>
     </row>
-    <row r="18" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -6252,11 +6497,11 @@
       <c r="J18">
         <v>53</v>
       </c>
-      <c r="K18" t="s">
+      <c r="L18" t="s">
         <v>325</v>
       </c>
     </row>
-    <row r="19" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>197</v>
       </c>
@@ -6278,11 +6523,11 @@
       <c r="J19">
         <v>46</v>
       </c>
-      <c r="K19" t="s">
+      <c r="L19" t="s">
         <v>326</v>
       </c>
     </row>
-    <row r="20" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -6304,11 +6549,11 @@
       <c r="J20">
         <v>48</v>
       </c>
-      <c r="K20" t="s">
+      <c r="L20" t="s">
         <v>327</v>
       </c>
     </row>
-    <row r="21" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -6330,11 +6575,11 @@
       <c r="J21">
         <v>47</v>
       </c>
-      <c r="K21" t="s">
+      <c r="L21" t="s">
         <v>328</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -6356,11 +6601,11 @@
       <c r="J22">
         <v>46</v>
       </c>
-      <c r="K22" t="s">
+      <c r="L22" t="s">
         <v>330</v>
       </c>
     </row>
-    <row r="23" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -6382,11 +6627,11 @@
       <c r="J23">
         <v>49</v>
       </c>
-      <c r="K23" t="s">
+      <c r="L23" t="s">
         <v>332</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>229</v>
       </c>
@@ -6408,16 +6653,16 @@
       <c r="J24">
         <v>44</v>
       </c>
-      <c r="K24" t="s">
+      <c r="L24" t="s">
         <v>335</v>
       </c>
     </row>
-    <row r="27" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>6</v>
       </c>
@@ -6425,7 +6670,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D29" t="s">
         <v>5</v>
       </c>
@@ -6444,14 +6689,14 @@
       <c r="J29" t="s">
         <v>11</v>
       </c>
-      <c r="K29" t="s">
+      <c r="L29" t="s">
         <v>12</v>
       </c>
-      <c r="L29" t="s">
+      <c r="M29" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>3</v>
       </c>
@@ -6473,11 +6718,11 @@
       <c r="J31">
         <v>53</v>
       </c>
-      <c r="K31" t="s">
+      <c r="L31" t="s">
         <v>337</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>4</v>
       </c>
@@ -6499,11 +6744,11 @@
       <c r="J32">
         <v>44</v>
       </c>
-      <c r="K32" t="s">
+      <c r="L32" t="s">
         <v>339</v>
       </c>
     </row>
-    <row r="33" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>16</v>
       </c>
@@ -6525,11 +6770,11 @@
       <c r="J33">
         <v>42</v>
       </c>
-      <c r="K33" t="s">
+      <c r="L33" t="s">
         <v>341</v>
       </c>
     </row>
-    <row r="34" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>17</v>
       </c>
@@ -6551,11 +6796,11 @@
       <c r="J34">
         <v>41</v>
       </c>
-      <c r="K34" t="s">
+      <c r="L34" t="s">
         <v>342</v>
       </c>
     </row>
-    <row r="35" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>18</v>
       </c>
@@ -6577,11 +6822,11 @@
       <c r="J35">
         <v>41</v>
       </c>
-      <c r="K35" t="s">
+      <c r="L35" t="s">
         <v>344</v>
       </c>
     </row>
-    <row r="36" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>19</v>
       </c>
@@ -6603,11 +6848,11 @@
       <c r="J36">
         <v>34</v>
       </c>
-      <c r="K36" t="s">
+      <c r="L36" t="s">
         <v>347</v>
       </c>
     </row>
-    <row r="37" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>20</v>
       </c>
@@ -6629,11 +6874,11 @@
       <c r="J37">
         <v>34</v>
       </c>
-      <c r="K37" t="s">
+      <c r="L37" t="s">
         <v>349</v>
       </c>
     </row>
-    <row r="38" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>21</v>
       </c>
@@ -6655,11 +6900,11 @@
       <c r="J38">
         <v>30</v>
       </c>
-      <c r="K38" t="s">
+      <c r="L38" t="s">
         <v>350</v>
       </c>
     </row>
-    <row r="39" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>22</v>
       </c>
@@ -6681,11 +6926,11 @@
       <c r="J39">
         <v>35</v>
       </c>
-      <c r="K39" t="s">
+      <c r="L39" t="s">
         <v>353</v>
       </c>
     </row>
-    <row r="40" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>23</v>
       </c>
@@ -6707,11 +6952,11 @@
       <c r="J40">
         <v>30</v>
       </c>
-      <c r="K40" t="s">
+      <c r="L40" t="s">
         <v>354</v>
       </c>
     </row>
-    <row r="41" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>86</v>
       </c>
@@ -6733,11 +6978,11 @@
       <c r="J41">
         <v>34</v>
       </c>
-      <c r="K41" t="s">
+      <c r="L41" t="s">
         <v>355</v>
       </c>
     </row>
-    <row r="42" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>89</v>
       </c>
@@ -6759,11 +7004,11 @@
       <c r="J42">
         <v>34</v>
       </c>
-      <c r="K42" t="s">
+      <c r="L42" t="s">
         <v>356</v>
       </c>
     </row>
-    <row r="43" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>150</v>
       </c>
@@ -6785,11 +7030,11 @@
       <c r="J43">
         <v>30</v>
       </c>
-      <c r="K43" t="s">
+      <c r="L43" t="s">
         <v>357</v>
       </c>
     </row>
-    <row r="44" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>151</v>
       </c>
@@ -6811,11 +7056,11 @@
       <c r="J44">
         <v>35</v>
       </c>
-      <c r="K44" t="s">
+      <c r="L44" t="s">
         <v>358</v>
       </c>
     </row>
-    <row r="45" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>186</v>
       </c>
@@ -6837,11 +7082,11 @@
       <c r="J45">
         <v>30</v>
       </c>
-      <c r="K45" t="s">
+      <c r="L45" t="s">
         <v>359</v>
       </c>
     </row>
-    <row r="46" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>197</v>
       </c>
@@ -6863,11 +7108,11 @@
       <c r="J46">
         <v>34</v>
       </c>
-      <c r="K46" t="s">
+      <c r="L46" t="s">
         <v>360</v>
       </c>
     </row>
-    <row r="47" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>198</v>
       </c>
@@ -6889,11 +7134,11 @@
       <c r="J47">
         <v>34</v>
       </c>
-      <c r="K47" t="s">
+      <c r="L47" t="s">
         <v>361</v>
       </c>
     </row>
-    <row r="48" spans="1:11" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>201</v>
       </c>
@@ -6915,11 +7160,11 @@
       <c r="J48">
         <v>30</v>
       </c>
-      <c r="K48" t="s">
+      <c r="L48" t="s">
         <v>362</v>
       </c>
     </row>
-    <row r="49" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>199</v>
       </c>
@@ -6941,11 +7186,11 @@
       <c r="J49">
         <v>35</v>
       </c>
-      <c r="K49" t="s">
+      <c r="L49" t="s">
         <v>363</v>
       </c>
     </row>
-    <row r="50" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>200</v>
       </c>
@@ -6967,11 +7212,11 @@
       <c r="J50">
         <v>30</v>
       </c>
-      <c r="K50" t="s">
+      <c r="L50" t="s">
         <v>364</v>
       </c>
     </row>
-    <row r="51" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:14" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>229</v>
       </c>
@@ -6990,27 +7235,27 @@
       <c r="J51">
         <v>30</v>
       </c>
-      <c r="K51" t="s">
+      <c r="L51" t="s">
         <v>365</v>
       </c>
     </row>
-    <row r="54" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="54" spans="1:14" ht="21" x14ac:dyDescent="0.25">
       <c r="A54" s="1" t="s">
         <v>156</v>
       </c>
     </row>
-    <row r="55" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="55" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D55" t="s">
         <v>6</v>
       </c>
       <c r="H55" t="s">
         <v>7</v>
       </c>
-      <c r="M55" t="s">
+      <c r="N55" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:14" x14ac:dyDescent="0.2">
       <c r="D56" t="s">
         <v>5</v>
       </c>
@@ -7030,60 +7275,1006 @@
         <v>9</v>
       </c>
       <c r="K56" t="s">
+        <v>763</v>
+      </c>
+      <c r="L56" t="s">
         <v>11</v>
       </c>
-      <c r="L56" t="s">
+      <c r="M56" t="s">
         <v>12</v>
       </c>
     </row>
-    <row r="57" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A57" t="s">
+    <row r="58" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A58" t="s">
+        <v>760</v>
+      </c>
+    </row>
+    <row r="60" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A60" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="58" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A58" t="s">
+      <c r="D60">
+        <v>100</v>
+      </c>
+      <c r="E60">
+        <v>0</v>
+      </c>
+      <c r="H60">
+        <v>100</v>
+      </c>
+      <c r="I60" t="s">
+        <v>762</v>
+      </c>
+      <c r="J60">
+        <v>87</v>
+      </c>
+      <c r="K60" t="s">
+        <v>764</v>
+      </c>
+      <c r="L60">
+        <v>45</v>
+      </c>
+      <c r="M60" t="s">
+        <v>761</v>
+      </c>
+    </row>
+    <row r="61" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A61" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="59" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A59" t="s">
+      <c r="D61">
+        <v>100</v>
+      </c>
+      <c r="E61">
+        <v>500</v>
+      </c>
+      <c r="H61">
+        <v>100</v>
+      </c>
+      <c r="I61" t="s">
+        <v>766</v>
+      </c>
+      <c r="J61">
+        <v>75</v>
+      </c>
+      <c r="K61" t="s">
+        <v>765</v>
+      </c>
+      <c r="L61">
+        <v>49</v>
+      </c>
+      <c r="M61" s="6" t="s">
+        <v>767</v>
+      </c>
+    </row>
+    <row r="62" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A62" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="60" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A60" t="s">
+      <c r="D62">
+        <v>100</v>
+      </c>
+      <c r="E62">
+        <v>1000</v>
+      </c>
+      <c r="H62">
+        <v>100</v>
+      </c>
+      <c r="I62" t="s">
+        <v>768</v>
+      </c>
+      <c r="J62">
+        <v>91</v>
+      </c>
+      <c r="K62" t="s">
+        <v>769</v>
+      </c>
+      <c r="L62">
+        <v>54</v>
+      </c>
+      <c r="M62" t="s">
+        <v>770</v>
+      </c>
+    </row>
+    <row r="63" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A63" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="61" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A61" t="s">
+      <c r="D63">
+        <v>100</v>
+      </c>
+      <c r="E63">
+        <v>1500</v>
+      </c>
+      <c r="H63">
+        <v>100</v>
+      </c>
+      <c r="I63" t="s">
+        <v>771</v>
+      </c>
+      <c r="J63">
+        <v>72</v>
+      </c>
+      <c r="K63" t="s">
+        <v>772</v>
+      </c>
+      <c r="L63">
+        <v>60</v>
+      </c>
+      <c r="M63" t="s">
+        <v>773</v>
+      </c>
+    </row>
+    <row r="64" spans="1:14" x14ac:dyDescent="0.2">
+      <c r="A64" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="62" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A62" t="s">
+      <c r="D64">
+        <v>100</v>
+      </c>
+      <c r="E64">
+        <v>2000</v>
+      </c>
+      <c r="H64">
+        <v>100</v>
+      </c>
+      <c r="I64" t="s">
+        <v>774</v>
+      </c>
+      <c r="J64">
+        <v>99</v>
+      </c>
+      <c r="K64" t="s">
+        <v>775</v>
+      </c>
+      <c r="L64">
+        <v>51</v>
+      </c>
+      <c r="M64" t="s">
+        <v>776</v>
+      </c>
+    </row>
+    <row r="65" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A65" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="63" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A63" t="s">
+      <c r="D65">
+        <v>500</v>
+      </c>
+      <c r="E65">
+        <v>0</v>
+      </c>
+      <c r="H65">
+        <v>500</v>
+      </c>
+      <c r="I65" t="s">
+        <v>777</v>
+      </c>
+      <c r="J65">
+        <v>148</v>
+      </c>
+      <c r="K65" t="s">
+        <v>779</v>
+      </c>
+      <c r="L65">
+        <v>41</v>
+      </c>
+      <c r="M65" t="s">
+        <v>778</v>
+      </c>
+    </row>
+    <row r="66" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A66" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="64" spans="1:13" x14ac:dyDescent="0.3">
-      <c r="A64" t="s">
+      <c r="D66">
+        <v>500</v>
+      </c>
+      <c r="E66">
+        <v>500</v>
+      </c>
+      <c r="H66">
+        <v>500</v>
+      </c>
+      <c r="I66" t="s">
+        <v>780</v>
+      </c>
+      <c r="J66">
+        <v>243</v>
+      </c>
+      <c r="K66" t="s">
+        <v>781</v>
+      </c>
+      <c r="L66">
+        <v>37</v>
+      </c>
+      <c r="M66" t="s">
+        <v>782</v>
+      </c>
+    </row>
+    <row r="67" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A67" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A65" t="s">
+      <c r="D67">
+        <v>500</v>
+      </c>
+      <c r="E67">
+        <v>1000</v>
+      </c>
+      <c r="H67">
+        <v>500</v>
+      </c>
+      <c r="I67" t="s">
+        <v>783</v>
+      </c>
+      <c r="J67">
+        <v>227</v>
+      </c>
+      <c r="K67" t="s">
+        <v>784</v>
+      </c>
+      <c r="L67">
+        <v>37</v>
+      </c>
+      <c r="M67" t="s">
+        <v>785</v>
+      </c>
+    </row>
+    <row r="68" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A68" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A66" t="s">
+      <c r="D68">
+        <v>500</v>
+      </c>
+      <c r="E68">
+        <v>1500</v>
+      </c>
+      <c r="H68">
+        <v>500</v>
+      </c>
+      <c r="I68" t="s">
+        <v>786</v>
+      </c>
+      <c r="J68">
+        <v>475</v>
+      </c>
+      <c r="K68" t="s">
+        <v>787</v>
+      </c>
+      <c r="L68">
+        <v>46</v>
+      </c>
+      <c r="M68" t="s">
+        <v>788</v>
+      </c>
+    </row>
+    <row r="69" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A69" t="s">
         <v>23</v>
+      </c>
+      <c r="D69">
+        <v>500</v>
+      </c>
+      <c r="E69">
+        <v>2000</v>
+      </c>
+      <c r="H69">
+        <v>500</v>
+      </c>
+      <c r="I69" t="s">
+        <v>789</v>
+      </c>
+      <c r="J69">
+        <v>375</v>
+      </c>
+      <c r="K69" t="s">
+        <v>790</v>
+      </c>
+      <c r="L69">
+        <v>34</v>
+      </c>
+      <c r="M69" t="s">
+        <v>791</v>
+      </c>
+    </row>
+    <row r="70" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A70" t="s">
+        <v>86</v>
+      </c>
+      <c r="D70">
+        <v>1000</v>
+      </c>
+      <c r="E70">
+        <v>0</v>
+      </c>
+      <c r="H70">
+        <v>1000</v>
+      </c>
+      <c r="I70" t="s">
+        <v>777</v>
+      </c>
+      <c r="J70">
+        <v>148</v>
+      </c>
+      <c r="K70" t="s">
+        <v>779</v>
+      </c>
+      <c r="L70">
+        <v>41</v>
+      </c>
+      <c r="M70" t="s">
+        <v>792</v>
+      </c>
+    </row>
+    <row r="71" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A71" t="s">
+        <v>89</v>
+      </c>
+      <c r="D71">
+        <v>1000</v>
+      </c>
+      <c r="E71">
+        <v>500</v>
+      </c>
+      <c r="H71">
+        <v>1000</v>
+      </c>
+      <c r="I71" t="s">
+        <v>780</v>
+      </c>
+      <c r="J71">
+        <v>243</v>
+      </c>
+      <c r="K71" t="s">
+        <v>781</v>
+      </c>
+      <c r="L71">
+        <v>37</v>
+      </c>
+      <c r="M71" t="s">
+        <v>793</v>
+      </c>
+    </row>
+    <row r="72" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A72" t="s">
+        <v>150</v>
+      </c>
+      <c r="D72">
+        <v>1000</v>
+      </c>
+      <c r="E72">
+        <v>1000</v>
+      </c>
+      <c r="H72">
+        <v>1000</v>
+      </c>
+      <c r="I72" t="s">
+        <v>783</v>
+      </c>
+      <c r="J72">
+        <v>227</v>
+      </c>
+      <c r="K72" t="s">
+        <v>784</v>
+      </c>
+      <c r="L72">
+        <v>37</v>
+      </c>
+      <c r="M72" t="s">
+        <v>794</v>
+      </c>
+    </row>
+    <row r="73" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A73" t="s">
+        <v>151</v>
+      </c>
+      <c r="D73">
+        <v>1000</v>
+      </c>
+      <c r="E73">
+        <v>1500</v>
+      </c>
+      <c r="H73">
+        <v>1000</v>
+      </c>
+      <c r="I73" t="s">
+        <v>795</v>
+      </c>
+      <c r="J73">
+        <v>504</v>
+      </c>
+      <c r="K73" t="s">
+        <v>796</v>
+      </c>
+      <c r="L73">
+        <v>40</v>
+      </c>
+      <c r="M73" t="s">
+        <v>797</v>
+      </c>
+    </row>
+    <row r="74" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A74" t="s">
+        <v>186</v>
+      </c>
+      <c r="D74">
+        <v>1000</v>
+      </c>
+      <c r="E74">
+        <v>2000</v>
+      </c>
+      <c r="H74">
+        <v>1000</v>
+      </c>
+      <c r="I74" t="s">
+        <v>789</v>
+      </c>
+      <c r="J74">
+        <v>375</v>
+      </c>
+      <c r="K74" t="s">
+        <v>790</v>
+      </c>
+      <c r="L74">
+        <v>34</v>
+      </c>
+      <c r="M74" t="s">
+        <v>798</v>
+      </c>
+    </row>
+    <row r="75" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A75" t="s">
+        <v>197</v>
+      </c>
+      <c r="D75">
+        <v>5000</v>
+      </c>
+      <c r="E75">
+        <v>0</v>
+      </c>
+      <c r="H75">
+        <v>5000</v>
+      </c>
+      <c r="I75" t="s">
+        <v>777</v>
+      </c>
+      <c r="J75">
+        <v>148</v>
+      </c>
+      <c r="K75" t="s">
+        <v>779</v>
+      </c>
+      <c r="L75">
+        <v>41</v>
+      </c>
+      <c r="M75" t="s">
+        <v>799</v>
+      </c>
+    </row>
+    <row r="76" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A76" t="s">
+        <v>198</v>
+      </c>
+      <c r="D76">
+        <v>5000</v>
+      </c>
+      <c r="E76">
+        <v>500</v>
+      </c>
+      <c r="H76">
+        <v>5000</v>
+      </c>
+      <c r="I76" t="s">
+        <v>780</v>
+      </c>
+      <c r="J76">
+        <v>243</v>
+      </c>
+      <c r="K76" t="s">
+        <v>781</v>
+      </c>
+      <c r="L76">
+        <v>37</v>
+      </c>
+      <c r="M76" t="s">
+        <v>800</v>
+      </c>
+    </row>
+    <row r="77" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A77" t="s">
+        <v>201</v>
+      </c>
+      <c r="D77">
+        <v>5000</v>
+      </c>
+      <c r="E77">
+        <v>1000</v>
+      </c>
+      <c r="H77">
+        <v>5000</v>
+      </c>
+      <c r="I77" t="s">
+        <v>783</v>
+      </c>
+      <c r="J77">
+        <v>227</v>
+      </c>
+      <c r="K77" t="s">
+        <v>784</v>
+      </c>
+      <c r="L77">
+        <v>37</v>
+      </c>
+      <c r="M77" t="s">
+        <v>801</v>
+      </c>
+    </row>
+    <row r="78" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A78" t="s">
+        <v>199</v>
+      </c>
+      <c r="D78">
+        <v>5000</v>
+      </c>
+      <c r="E78">
+        <v>1500</v>
+      </c>
+      <c r="H78">
+        <v>5000</v>
+      </c>
+      <c r="I78" t="s">
+        <v>802</v>
+      </c>
+      <c r="J78">
+        <v>1324</v>
+      </c>
+      <c r="K78" t="s">
+        <v>803</v>
+      </c>
+      <c r="L78">
+        <v>38</v>
+      </c>
+      <c r="M78" t="s">
+        <v>804</v>
+      </c>
+    </row>
+    <row r="79" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A79" t="s">
+        <v>200</v>
+      </c>
+      <c r="D79">
+        <v>5000</v>
+      </c>
+      <c r="E79">
+        <v>2000</v>
+      </c>
+      <c r="H79">
+        <v>5000</v>
+      </c>
+      <c r="I79" t="s">
+        <v>789</v>
+      </c>
+      <c r="J79">
+        <v>375</v>
+      </c>
+      <c r="K79" t="s">
+        <v>790</v>
+      </c>
+      <c r="L79">
+        <v>34</v>
+      </c>
+      <c r="M79" t="s">
+        <v>805</v>
+      </c>
+    </row>
+    <row r="80" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A80" t="s">
+        <v>229</v>
+      </c>
+      <c r="D80">
+        <v>100000</v>
+      </c>
+      <c r="E80">
+        <v>2000</v>
+      </c>
+      <c r="H80">
+        <v>100000</v>
+      </c>
+      <c r="I80" t="s">
+        <v>789</v>
+      </c>
+      <c r="J80">
+        <v>375</v>
+      </c>
+      <c r="K80" t="s">
+        <v>790</v>
+      </c>
+      <c r="L80">
+        <v>34</v>
+      </c>
+      <c r="M80" t="s">
+        <v>806</v>
+      </c>
+    </row>
+    <row r="82" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
+        <v>807</v>
+      </c>
+    </row>
+    <row r="83" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
+        <v>808</v>
+      </c>
+    </row>
+    <row r="85" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
+        <v>262</v>
+      </c>
+      <c r="D85">
+        <v>100</v>
+      </c>
+      <c r="E85">
+        <v>0</v>
+      </c>
+      <c r="H85">
+        <v>100</v>
+      </c>
+      <c r="I85" t="s">
+        <v>809</v>
+      </c>
+      <c r="J85">
+        <v>90</v>
+      </c>
+      <c r="K85" t="s">
+        <v>810</v>
+      </c>
+      <c r="L85">
+        <v>50</v>
+      </c>
+      <c r="M85" t="s">
+        <v>811</v>
+      </c>
+    </row>
+    <row r="86" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
+        <v>263</v>
+      </c>
+      <c r="D86">
+        <v>100</v>
+      </c>
+      <c r="E86">
+        <v>500</v>
+      </c>
+      <c r="H86">
+        <v>100</v>
+      </c>
+      <c r="I86" t="s">
+        <v>812</v>
+      </c>
+      <c r="J86">
+        <v>81</v>
+      </c>
+      <c r="K86" t="s">
+        <v>813</v>
+      </c>
+      <c r="L86">
+        <v>50</v>
+      </c>
+      <c r="M86" s="6" t="s">
+        <v>814</v>
+      </c>
+    </row>
+    <row r="87" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
+        <v>264</v>
+      </c>
+      <c r="D87">
+        <v>100</v>
+      </c>
+      <c r="E87">
+        <v>1000</v>
+      </c>
+      <c r="H87">
+        <v>100</v>
+      </c>
+      <c r="I87" t="s">
+        <v>815</v>
+      </c>
+      <c r="J87">
+        <v>92</v>
+      </c>
+      <c r="K87" t="s">
+        <v>816</v>
+      </c>
+      <c r="L87">
+        <v>61</v>
+      </c>
+      <c r="M87" t="s">
+        <v>817</v>
+      </c>
+    </row>
+    <row r="88" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
+        <v>265</v>
+      </c>
+      <c r="D88">
+        <v>100</v>
+      </c>
+      <c r="E88">
+        <v>1500</v>
+      </c>
+      <c r="H88">
+        <v>100</v>
+      </c>
+      <c r="I88" t="s">
+        <v>818</v>
+      </c>
+      <c r="J88">
+        <v>97</v>
+      </c>
+      <c r="K88" t="s">
+        <v>819</v>
+      </c>
+      <c r="L88">
+        <v>51</v>
+      </c>
+      <c r="M88" t="s">
+        <v>820</v>
+      </c>
+    </row>
+    <row r="89" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
+        <v>266</v>
+      </c>
+      <c r="D89">
+        <v>100</v>
+      </c>
+      <c r="E89">
+        <v>2000</v>
+      </c>
+      <c r="H89">
+        <v>100</v>
+      </c>
+      <c r="I89" t="s">
+        <v>821</v>
+      </c>
+      <c r="J89">
+        <v>96</v>
+      </c>
+      <c r="K89" t="s">
+        <v>822</v>
+      </c>
+      <c r="L89">
+        <v>49</v>
+      </c>
+      <c r="M89" t="s">
+        <v>823</v>
+      </c>
+    </row>
+    <row r="90" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A90" t="s">
+        <v>267</v>
+      </c>
+      <c r="D90">
+        <v>5000</v>
+      </c>
+      <c r="E90">
+        <v>0</v>
+      </c>
+      <c r="H90">
+        <v>5000</v>
+      </c>
+      <c r="I90" t="s">
+        <v>824</v>
+      </c>
+      <c r="J90">
+        <v>4959</v>
+      </c>
+      <c r="K90" t="s">
+        <v>825</v>
+      </c>
+      <c r="L90">
+        <v>37</v>
+      </c>
+      <c r="M90" t="s">
+        <v>826</v>
+      </c>
+    </row>
+    <row r="91" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A91" t="s">
+        <v>268</v>
+      </c>
+      <c r="D91">
+        <v>5000</v>
+      </c>
+      <c r="E91">
+        <v>500</v>
+      </c>
+      <c r="H91">
+        <v>5000</v>
+      </c>
+      <c r="I91" t="s">
+        <v>828</v>
+      </c>
+      <c r="J91">
+        <v>4787</v>
+      </c>
+      <c r="K91" t="s">
+        <v>827</v>
+      </c>
+      <c r="L91">
+        <v>32</v>
+      </c>
+      <c r="M91" t="s">
+        <v>829</v>
+      </c>
+    </row>
+    <row r="92" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A92" t="s">
+        <v>269</v>
+      </c>
+      <c r="D92">
+        <v>5000</v>
+      </c>
+      <c r="E92">
+        <v>1000</v>
+      </c>
+      <c r="H92">
+        <v>5000</v>
+      </c>
+      <c r="I92" t="s">
+        <v>351</v>
+      </c>
+      <c r="J92">
+        <v>4784</v>
+      </c>
+      <c r="K92" t="s">
+        <v>830</v>
+      </c>
+      <c r="L92">
+        <v>30</v>
+      </c>
+      <c r="M92" t="s">
+        <v>831</v>
+      </c>
+    </row>
+    <row r="93" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A93" t="s">
+        <v>270</v>
+      </c>
+      <c r="D93">
+        <v>5000</v>
+      </c>
+      <c r="E93">
+        <v>1500</v>
+      </c>
+      <c r="H93">
+        <v>5000</v>
+      </c>
+      <c r="I93" t="s">
+        <v>832</v>
+      </c>
+      <c r="J93">
+        <v>4988</v>
+      </c>
+      <c r="K93" t="s">
+        <v>833</v>
+      </c>
+      <c r="L93">
+        <v>40</v>
+      </c>
+      <c r="M93" t="s">
+        <v>834</v>
+      </c>
+    </row>
+    <row r="94" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A94" t="s">
+        <v>271</v>
+      </c>
+      <c r="D94">
+        <v>5000</v>
+      </c>
+      <c r="E94">
+        <v>2000</v>
+      </c>
+      <c r="H94">
+        <v>5000</v>
+      </c>
+      <c r="I94" t="s">
+        <v>836</v>
+      </c>
+      <c r="J94">
+        <v>4920</v>
+      </c>
+      <c r="K94" t="s">
+        <v>837</v>
+      </c>
+      <c r="L94">
+        <v>39</v>
+      </c>
+      <c r="M94" t="s">
+        <v>835</v>
+      </c>
+    </row>
+    <row r="95" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A95" t="s">
+        <v>272</v>
+      </c>
+      <c r="D95">
+        <v>100000</v>
+      </c>
+      <c r="E95">
+        <v>1000</v>
+      </c>
+      <c r="H95">
+        <v>100000</v>
+      </c>
+      <c r="I95" t="s">
+        <v>838</v>
+      </c>
+      <c r="J95">
+        <v>99848</v>
+      </c>
+      <c r="K95" t="s">
+        <v>839</v>
+      </c>
+      <c r="L95">
+        <v>31</v>
+      </c>
+      <c r="M95" t="s">
+        <v>840</v>
+      </c>
+    </row>
+    <row r="96" spans="1:13" x14ac:dyDescent="0.2">
+      <c r="A96" t="s">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="97" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A97" t="s">
+        <v>288</v>
+      </c>
+    </row>
+    <row r="98" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A98" t="s">
+        <v>289</v>
+      </c>
+    </row>
+    <row r="99" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A99" t="s">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="100" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A100" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="101" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A101" t="s">
+        <v>302</v>
+      </c>
+    </row>
+    <row r="102" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A102" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="103" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A103" t="s">
+        <v>304</v>
+      </c>
+    </row>
+    <row r="104" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A104" t="s">
+        <v>538</v>
+      </c>
+    </row>
+    <row r="105" spans="1:1" x14ac:dyDescent="0.2">
+      <c r="A105" t="s">
+        <v>539</v>
       </c>
     </row>
   </sheetData>
@@ -7099,12 +8290,12 @@
       <selection activeCell="A34" sqref="A34:M47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="8" max="8" width="19.69921875" customWidth="1"/>
+    <col min="8" max="8" width="19.6640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7115,7 +8306,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -7141,7 +8332,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7167,7 +8358,7 @@
         <v>68</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7193,7 +8384,7 @@
         <v>69</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7219,7 +8410,7 @@
         <v>71</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -7245,7 +8436,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -7271,7 +8462,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -7297,7 +8488,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -7323,7 +8514,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -7349,7 +8540,7 @@
         <v>81</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -7375,7 +8566,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="13" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -7401,7 +8592,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -7427,7 +8618,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -7453,7 +8644,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -7464,7 +8655,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -7490,7 +8681,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -7516,7 +8707,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -7542,7 +8733,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -7568,7 +8759,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -7594,7 +8785,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -7620,7 +8811,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -7646,7 +8837,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -7672,7 +8863,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -7698,7 +8889,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -7724,7 +8915,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="34" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A34" s="1" t="s">
         <v>156</v>
       </c>
@@ -7735,7 +8926,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D35" t="s">
         <v>5</v>
       </c>
@@ -7764,52 +8955,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="38" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="39" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="40" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="42" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>23</v>
       </c>
@@ -7828,18 +9019,18 @@
       <selection activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="11" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="11" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
     <col min="4" max="4" width="17.5" customWidth="1"/>
     <col min="5" max="5" width="12.5" customWidth="1"/>
-    <col min="7" max="7" width="15.19921875" customWidth="1"/>
-    <col min="8" max="8" width="35.19921875" customWidth="1"/>
+    <col min="7" max="7" width="15.1640625" customWidth="1"/>
+    <col min="8" max="8" width="35.1640625" customWidth="1"/>
     <col min="9" max="9" width="14" customWidth="1"/>
-    <col min="10" max="10" width="12.296875" customWidth="1"/>
-    <col min="11" max="11" width="33.19921875" customWidth="1"/>
+    <col min="10" max="10" width="12.33203125" customWidth="1"/>
+    <col min="11" max="11" width="33.1640625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -7850,7 +9041,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -7876,7 +9067,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -7902,7 +9093,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -7928,7 +9119,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -7954,7 +9145,7 @@
         <v>112</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -7980,7 +9171,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -8006,7 +9197,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="9" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -8032,7 +9223,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="10" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -8058,7 +9249,7 @@
         <v>120</v>
       </c>
     </row>
-    <row r="11" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -8084,7 +9275,7 @@
         <v>122</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -8110,7 +9301,7 @@
         <v>124</v>
       </c>
     </row>
-    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>0</v>
       </c>
@@ -8121,7 +9312,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -8147,7 +9338,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
@@ -8173,7 +9364,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="25" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
@@ -8199,7 +9390,7 @@
         <v>128</v>
       </c>
     </row>
-    <row r="26" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
@@ -8228,7 +9419,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="27" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
@@ -8254,7 +9445,7 @@
         <v>133</v>
       </c>
     </row>
-    <row r="28" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
@@ -8280,7 +9471,7 @@
         <v>135</v>
       </c>
     </row>
-    <row r="29" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
@@ -8306,7 +9497,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="30" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
@@ -8332,7 +9523,7 @@
         <v>139</v>
       </c>
     </row>
-    <row r="31" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
@@ -8358,7 +9549,7 @@
         <v>141</v>
       </c>
     </row>
-    <row r="32" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
@@ -8384,7 +9575,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="33" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -8410,7 +9601,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="34" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>86</v>
       </c>
@@ -8436,7 +9627,7 @@
         <v>147</v>
       </c>
     </row>
-    <row r="35" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>89</v>
       </c>
@@ -8462,7 +9653,7 @@
         <v>149</v>
       </c>
     </row>
-    <row r="36" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>150</v>
       </c>
@@ -8488,7 +9679,7 @@
         <v>153</v>
       </c>
     </row>
-    <row r="37" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>151</v>
       </c>
@@ -8514,7 +9705,7 @@
         <v>155</v>
       </c>
     </row>
-    <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="40" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A40" s="1" t="s">
         <v>156</v>
       </c>
@@ -8525,7 +9716,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="41" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D41" t="s">
         <v>5</v>
       </c>
@@ -8554,52 +9745,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="43" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="44" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="45" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="46" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="47" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="48" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="51" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A51" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="52" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A52" t="s">
         <v>23</v>
       </c>
@@ -8618,20 +9809,20 @@
       <selection activeCell="D26" sqref="D26"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="42.296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="42.33203125" bestFit="1" customWidth="1"/>
     <col min="9" max="10" width="18" bestFit="1" customWidth="1"/>
     <col min="11" max="11" width="33" bestFit="1" customWidth="1"/>
-    <col min="12" max="13" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="12" max="13" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -8642,7 +9833,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -8668,7 +9859,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -8694,7 +9885,7 @@
         <v>159</v>
       </c>
     </row>
-    <row r="5" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -8720,7 +9911,7 @@
         <v>161</v>
       </c>
     </row>
-    <row r="6" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -8746,7 +9937,7 @@
         <v>163</v>
       </c>
     </row>
-    <row r="7" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -8772,7 +9963,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="8" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -8801,7 +9992,7 @@
         <v>168</v>
       </c>
     </row>
-    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.4">
+    <row r="11" spans="1:12" ht="21" x14ac:dyDescent="0.25">
       <c r="A11" s="1" t="s">
         <v>0</v>
       </c>
@@ -8812,7 +10003,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:12" x14ac:dyDescent="0.2">
       <c r="D12" t="s">
         <v>5</v>
       </c>
@@ -8838,7 +10029,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="14" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>3</v>
       </c>
@@ -8867,7 +10058,7 @@
         <v>171</v>
       </c>
     </row>
-    <row r="15" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>4</v>
       </c>
@@ -8893,7 +10084,7 @@
         <v>173</v>
       </c>
     </row>
-    <row r="16" spans="1:12" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:12" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -8919,7 +10110,7 @@
         <v>174</v>
       </c>
     </row>
-    <row r="17" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -8945,7 +10136,7 @@
         <v>177</v>
       </c>
     </row>
-    <row r="18" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -8974,7 +10165,7 @@
         <v>180</v>
       </c>
     </row>
-    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.4">
+    <row r="21" spans="1:13" ht="21" x14ac:dyDescent="0.25">
       <c r="A21" s="1" t="s">
         <v>156</v>
       </c>
@@ -8985,7 +10176,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="22" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:13" x14ac:dyDescent="0.2">
       <c r="D22" t="s">
         <v>5</v>
       </c>
@@ -9014,52 +10205,52 @@
         <v>13</v>
       </c>
     </row>
-    <row r="24" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="25" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="25" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="26" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="26" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>16</v>
       </c>
     </row>
-    <row r="27" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="27" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A27" t="s">
         <v>17</v>
       </c>
     </row>
-    <row r="28" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A28" t="s">
         <v>18</v>
       </c>
     </row>
-    <row r="29" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="29" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A29" t="s">
         <v>19</v>
       </c>
     </row>
-    <row r="30" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="31" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>21</v>
       </c>
     </row>
-    <row r="32" spans="1:13" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:13" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>22</v>
       </c>
     </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:1" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>23</v>
       </c>
@@ -9074,28 +10265,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{2BD78113-BF29-4DE2-BB0B-C375FBE02098}">
   <dimension ref="A1:Q199"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+    <sheetView topLeftCell="A69" workbookViewId="0">
+      <selection activeCell="A199" sqref="A199"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultColWidth="8.796875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="27.69921875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.69921875" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="11.796875" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="16.69921875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="27.6640625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.6640625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.83203125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="16.6640625" bestFit="1" customWidth="1"/>
     <col min="7" max="7" width="18.5" customWidth="1"/>
-    <col min="8" max="10" width="16.69921875" customWidth="1"/>
-    <col min="11" max="11" width="18.69921875" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="18.69921875" customWidth="1"/>
-    <col min="13" max="13" width="52.296875" customWidth="1"/>
+    <col min="8" max="10" width="16.6640625" customWidth="1"/>
+    <col min="11" max="11" width="18.6640625" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="18.6640625" customWidth="1"/>
+    <col min="13" max="13" width="52.33203125" customWidth="1"/>
     <col min="14" max="14" width="18" bestFit="1" customWidth="1"/>
-    <col min="15" max="15" width="12.796875" customWidth="1"/>
-    <col min="16" max="16" width="39.296875" customWidth="1"/>
-    <col min="17" max="18" width="11.296875" bestFit="1" customWidth="1"/>
+    <col min="15" max="15" width="12.83203125" customWidth="1"/>
+    <col min="16" max="16" width="39.33203125" customWidth="1"/>
+    <col min="17" max="18" width="11.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+    <row r="1" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A1" s="1" t="s">
         <v>1</v>
       </c>
@@ -9106,7 +10297,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D2" t="s">
         <v>5</v>
       </c>
@@ -9132,7 +10323,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="4" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -9158,7 +10349,7 @@
         <v>366</v>
       </c>
     </row>
-    <row r="5" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>4</v>
       </c>
@@ -9184,7 +10375,7 @@
         <v>367</v>
       </c>
     </row>
-    <row r="6" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>16</v>
       </c>
@@ -9210,7 +10401,7 @@
         <v>369</v>
       </c>
     </row>
-    <row r="7" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="7" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>17</v>
       </c>
@@ -9236,7 +10427,7 @@
         <v>372</v>
       </c>
     </row>
-    <row r="8" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>18</v>
       </c>
@@ -9262,7 +10453,7 @@
         <v>374</v>
       </c>
     </row>
-    <row r="9" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>19</v>
       </c>
@@ -9288,7 +10479,7 @@
         <v>376</v>
       </c>
     </row>
-    <row r="10" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>20</v>
       </c>
@@ -9314,7 +10505,7 @@
         <v>378</v>
       </c>
     </row>
-    <row r="11" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="11" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A11" t="s">
         <v>21</v>
       </c>
@@ -9340,7 +10531,7 @@
         <v>380</v>
       </c>
     </row>
-    <row r="12" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>22</v>
       </c>
@@ -9366,7 +10557,7 @@
         <v>381</v>
       </c>
     </row>
-    <row r="13" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>23</v>
       </c>
@@ -9392,7 +10583,7 @@
         <v>383</v>
       </c>
     </row>
-    <row r="14" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>86</v>
       </c>
@@ -9418,7 +10609,7 @@
         <v>385</v>
       </c>
     </row>
-    <row r="15" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>89</v>
       </c>
@@ -9444,7 +10635,7 @@
         <v>387</v>
       </c>
     </row>
-    <row r="16" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>150</v>
       </c>
@@ -9470,7 +10661,7 @@
         <v>389</v>
       </c>
     </row>
-    <row r="17" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>151</v>
       </c>
@@ -9496,7 +10687,7 @@
         <v>391</v>
       </c>
     </row>
-    <row r="18" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>186</v>
       </c>
@@ -9522,7 +10713,7 @@
         <v>392</v>
       </c>
     </row>
-    <row r="19" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>197</v>
       </c>
@@ -9548,7 +10739,7 @@
         <v>393</v>
       </c>
     </row>
-    <row r="20" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>198</v>
       </c>
@@ -9574,7 +10765,7 @@
         <v>395</v>
       </c>
     </row>
-    <row r="21" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>201</v>
       </c>
@@ -9600,7 +10791,7 @@
         <v>396</v>
       </c>
     </row>
-    <row r="22" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>199</v>
       </c>
@@ -9626,7 +10817,7 @@
         <v>398</v>
       </c>
     </row>
-    <row r="23" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A23" t="s">
         <v>200</v>
       </c>
@@ -9652,7 +10843,7 @@
         <v>400</v>
       </c>
     </row>
-    <row r="24" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="24" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>229</v>
       </c>
@@ -9678,7 +10869,7 @@
         <v>401</v>
       </c>
     </row>
-    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+    <row r="27" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A27" s="1" t="s">
         <v>0</v>
       </c>
@@ -9689,7 +10880,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="28" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="28" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D28" t="s">
         <v>5</v>
       </c>
@@ -9715,7 +10906,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="30" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="30" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>3</v>
       </c>
@@ -9741,7 +10932,7 @@
         <v>402</v>
       </c>
     </row>
-    <row r="31" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="31" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>4</v>
       </c>
@@ -9767,7 +10958,7 @@
         <v>404</v>
       </c>
     </row>
-    <row r="32" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="32" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>16</v>
       </c>
@@ -9793,7 +10984,7 @@
         <v>406</v>
       </c>
     </row>
-    <row r="33" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>17</v>
       </c>
@@ -9819,7 +11010,7 @@
         <v>408</v>
       </c>
     </row>
-    <row r="34" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A34" t="s">
         <v>18</v>
       </c>
@@ -9845,7 +11036,7 @@
         <v>410</v>
       </c>
     </row>
-    <row r="35" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>19</v>
       </c>
@@ -9871,7 +11062,7 @@
         <v>411</v>
       </c>
     </row>
-    <row r="36" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="36" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>20</v>
       </c>
@@ -9897,7 +11088,7 @@
         <v>413</v>
       </c>
     </row>
-    <row r="37" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>21</v>
       </c>
@@ -9923,7 +11114,7 @@
         <v>415</v>
       </c>
     </row>
-    <row r="38" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A38" t="s">
         <v>22</v>
       </c>
@@ -9949,7 +11140,7 @@
         <v>417</v>
       </c>
     </row>
-    <row r="39" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A39" t="s">
         <v>23</v>
       </c>
@@ -9975,7 +11166,7 @@
         <v>419</v>
       </c>
     </row>
-    <row r="40" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>86</v>
       </c>
@@ -10001,7 +11192,7 @@
         <v>421</v>
       </c>
     </row>
-    <row r="41" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>89</v>
       </c>
@@ -10027,7 +11218,7 @@
         <v>423</v>
       </c>
     </row>
-    <row r="42" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>150</v>
       </c>
@@ -10053,7 +11244,7 @@
         <v>425</v>
       </c>
     </row>
-    <row r="43" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A43" t="s">
         <v>151</v>
       </c>
@@ -10079,7 +11270,7 @@
         <v>427</v>
       </c>
     </row>
-    <row r="44" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A44" t="s">
         <v>186</v>
       </c>
@@ -10105,7 +11296,7 @@
         <v>429</v>
       </c>
     </row>
-    <row r="45" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>197</v>
       </c>
@@ -10131,7 +11322,7 @@
         <v>430</v>
       </c>
     </row>
-    <row r="46" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>198</v>
       </c>
@@ -10157,7 +11348,7 @@
         <v>432</v>
       </c>
     </row>
-    <row r="47" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A47" t="s">
         <v>201</v>
       </c>
@@ -10183,7 +11374,7 @@
         <v>434</v>
       </c>
     </row>
-    <row r="48" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A48" t="s">
         <v>199</v>
       </c>
@@ -10209,7 +11400,7 @@
         <v>436</v>
       </c>
     </row>
-    <row r="49" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="49" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A49" t="s">
         <v>200</v>
       </c>
@@ -10235,7 +11426,7 @@
         <v>438</v>
       </c>
     </row>
-    <row r="50" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="50" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A50" t="s">
         <v>229</v>
       </c>
@@ -10261,7 +11452,7 @@
         <v>439</v>
       </c>
     </row>
-    <row r="53" spans="1:17" ht="21" x14ac:dyDescent="0.4">
+    <row r="53" spans="1:17" ht="21" x14ac:dyDescent="0.25">
       <c r="A53" s="1" t="s">
         <v>156</v>
       </c>
@@ -10272,7 +11463,7 @@
         <v>7</v>
       </c>
     </row>
-    <row r="54" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="54" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D54" s="2" t="s">
         <v>5</v>
       </c>
@@ -10313,7 +11504,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="56" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="56" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>3</v>
       </c>
@@ -10348,7 +11539,7 @@
         <v>457</v>
       </c>
     </row>
-    <row r="57" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="57" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>4</v>
       </c>
@@ -10383,7 +11574,7 @@
         <v>462</v>
       </c>
     </row>
-    <row r="58" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="58" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>16</v>
       </c>
@@ -10418,7 +11609,7 @@
         <v>465</v>
       </c>
     </row>
-    <row r="59" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="59" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>17</v>
       </c>
@@ -10453,7 +11644,7 @@
         <v>469</v>
       </c>
     </row>
-    <row r="60" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="60" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>18</v>
       </c>
@@ -10488,7 +11679,7 @@
         <v>471</v>
       </c>
     </row>
-    <row r="61" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A61" s="4" t="s">
         <v>19</v>
       </c>
@@ -10528,7 +11719,7 @@
         <v>442</v>
       </c>
     </row>
-    <row r="62" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A62" s="4" t="s">
         <v>20</v>
       </c>
@@ -10568,7 +11759,7 @@
         <v>460</v>
       </c>
     </row>
-    <row r="63" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A63" s="4" t="s">
         <v>21</v>
       </c>
@@ -10608,7 +11799,7 @@
         <v>472</v>
       </c>
     </row>
-    <row r="64" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A64" s="4" t="s">
         <v>22</v>
       </c>
@@ -10648,7 +11839,7 @@
         <v>475</v>
       </c>
     </row>
-    <row r="65" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="65" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A65" s="4" t="s">
         <v>23</v>
       </c>
@@ -10688,7 +11879,7 @@
         <v>478</v>
       </c>
     </row>
-    <row r="66" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="66" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>86</v>
       </c>
@@ -10723,7 +11914,7 @@
         <v>441</v>
       </c>
     </row>
-    <row r="67" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="67" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>89</v>
       </c>
@@ -10758,7 +11949,7 @@
         <v>456</v>
       </c>
     </row>
-    <row r="68" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="68" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>150</v>
       </c>
@@ -10793,7 +11984,7 @@
         <v>483</v>
       </c>
     </row>
-    <row r="69" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="69" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A69" t="s">
         <v>151</v>
       </c>
@@ -10828,7 +12019,7 @@
         <v>484</v>
       </c>
     </row>
-    <row r="70" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="70" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A70" t="s">
         <v>186</v>
       </c>
@@ -10863,7 +12054,7 @@
         <v>487</v>
       </c>
     </row>
-    <row r="71" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="71" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>197</v>
       </c>
@@ -10898,7 +12089,7 @@
         <v>446</v>
       </c>
     </row>
-    <row r="72" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="72" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A72" t="s">
         <v>198</v>
       </c>
@@ -10933,7 +12124,7 @@
         <v>491</v>
       </c>
     </row>
-    <row r="73" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="73" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A73" t="s">
         <v>201</v>
       </c>
@@ -10968,7 +12159,7 @@
         <v>493</v>
       </c>
     </row>
-    <row r="74" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="74" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>199</v>
       </c>
@@ -11003,7 +12194,7 @@
         <v>495</v>
       </c>
     </row>
-    <row r="75" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="75" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>200</v>
       </c>
@@ -11041,7 +12232,7 @@
         <v>463</v>
       </c>
     </row>
-    <row r="77" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="77" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A77" t="s">
         <v>498</v>
       </c>
@@ -11053,7 +12244,7 @@
         <v>352</v>
       </c>
     </row>
-    <row r="78" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="78" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D78" t="s">
         <v>500</v>
       </c>
@@ -11062,7 +12253,7 @@
         <v>332.6</v>
       </c>
     </row>
-    <row r="79" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="79" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D79" t="s">
         <v>501</v>
       </c>
@@ -11071,7 +12262,7 @@
         <v>350</v>
       </c>
     </row>
-    <row r="80" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="80" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D80" t="s">
         <v>502</v>
       </c>
@@ -11080,12 +12271,12 @@
         <v>342.8</v>
       </c>
     </row>
-    <row r="81" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="81" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A81" t="s">
         <v>503</v>
       </c>
     </row>
-    <row r="83" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="83" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A83" s="4" t="s">
         <v>229</v>
       </c>
@@ -11125,7 +12316,7 @@
         <v>504</v>
       </c>
     </row>
-    <row r="84" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="84" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A84" s="4" t="s">
         <v>262</v>
       </c>
@@ -11165,7 +12356,7 @@
         <v>507</v>
       </c>
     </row>
-    <row r="85" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="85" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A85" s="4" t="s">
         <v>263</v>
       </c>
@@ -11205,7 +12396,7 @@
         <v>510</v>
       </c>
     </row>
-    <row r="86" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="86" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A86" s="4" t="s">
         <v>264</v>
       </c>
@@ -11245,7 +12436,7 @@
         <v>513</v>
       </c>
     </row>
-    <row r="87" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="87" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A87" s="4" t="s">
         <v>265</v>
       </c>
@@ -11285,7 +12476,7 @@
         <v>516</v>
       </c>
     </row>
-    <row r="88" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="88" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A88" t="s">
         <v>266</v>
       </c>
@@ -11320,7 +12511,7 @@
         <v>519</v>
       </c>
     </row>
-    <row r="89" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="89" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A89" t="s">
         <v>267</v>
       </c>
@@ -11355,7 +12546,7 @@
         <v>522</v>
       </c>
     </row>
-    <row r="90" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="90" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A90" t="s">
         <v>268</v>
       </c>
@@ -11390,7 +12581,7 @@
         <v>525</v>
       </c>
     </row>
-    <row r="91" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="91" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>269</v>
       </c>
@@ -11425,7 +12616,7 @@
         <v>528</v>
       </c>
     </row>
-    <row r="92" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="92" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>270</v>
       </c>
@@ -11460,7 +12651,7 @@
         <v>531</v>
       </c>
     </row>
-    <row r="94" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A94" t="s">
         <v>534</v>
       </c>
@@ -11476,7 +12667,7 @@
         <v>234.2</v>
       </c>
     </row>
-    <row r="95" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="95" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A95" t="s">
         <v>535</v>
       </c>
@@ -11492,22 +12683,22 @@
         <v>231.8</v>
       </c>
     </row>
-    <row r="96" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="96" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>536</v>
       </c>
     </row>
-    <row r="97" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="97" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>651</v>
       </c>
     </row>
-    <row r="98" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="98" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A98" s="5" t="s">
         <v>652</v>
       </c>
     </row>
-    <row r="100" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="100" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>271</v>
       </c>
@@ -11542,7 +12733,7 @@
         <v>551</v>
       </c>
     </row>
-    <row r="101" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="101" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>272</v>
       </c>
@@ -11577,7 +12768,7 @@
         <v>554</v>
       </c>
     </row>
-    <row r="102" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="102" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>273</v>
       </c>
@@ -11612,7 +12803,7 @@
         <v>556</v>
       </c>
     </row>
-    <row r="103" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="103" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>288</v>
       </c>
@@ -11647,7 +12838,7 @@
         <v>557</v>
       </c>
     </row>
-    <row r="104" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="104" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A104" t="s">
         <v>289</v>
       </c>
@@ -11685,7 +12876,7 @@
         <v>562</v>
       </c>
     </row>
-    <row r="105" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="105" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A105" s="4" t="s">
         <v>300</v>
       </c>
@@ -11725,7 +12916,7 @@
         <v>563</v>
       </c>
     </row>
-    <row r="106" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="106" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A106" s="4" t="s">
         <v>301</v>
       </c>
@@ -11765,7 +12956,7 @@
         <v>566</v>
       </c>
     </row>
-    <row r="107" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="107" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A107" s="4" t="s">
         <v>302</v>
       </c>
@@ -11805,7 +12996,7 @@
         <v>569</v>
       </c>
     </row>
-    <row r="108" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="108" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A108" s="4" t="s">
         <v>303</v>
       </c>
@@ -11845,7 +13036,7 @@
         <v>571</v>
       </c>
     </row>
-    <row r="109" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="109" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A109" s="4" t="s">
         <v>304</v>
       </c>
@@ -11885,7 +13076,7 @@
         <v>573</v>
       </c>
     </row>
-    <row r="110" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="110" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A110" t="s">
         <v>538</v>
       </c>
@@ -11920,7 +13111,7 @@
         <v>574</v>
       </c>
     </row>
-    <row r="111" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="111" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A111" t="s">
         <v>539</v>
       </c>
@@ -11955,7 +13146,7 @@
         <v>578</v>
       </c>
     </row>
-    <row r="112" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="112" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A112" t="s">
         <v>540</v>
       </c>
@@ -11990,7 +13181,7 @@
         <v>581</v>
       </c>
     </row>
-    <row r="113" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="113" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A113" t="s">
         <v>541</v>
       </c>
@@ -12025,7 +13216,7 @@
         <v>584</v>
       </c>
     </row>
-    <row r="114" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="114" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A114" t="s">
         <v>542</v>
       </c>
@@ -12063,7 +13254,7 @@
         <v>588</v>
       </c>
     </row>
-    <row r="115" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A115" t="s">
         <v>543</v>
       </c>
@@ -12098,7 +13289,7 @@
         <v>591</v>
       </c>
     </row>
-    <row r="116" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="116" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A116" t="s">
         <v>544</v>
       </c>
@@ -12133,7 +13324,7 @@
         <v>596</v>
       </c>
     </row>
-    <row r="117" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="117" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A117" t="s">
         <v>545</v>
       </c>
@@ -12168,7 +13359,7 @@
         <v>599</v>
       </c>
     </row>
-    <row r="118" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="118" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A118" t="s">
         <v>546</v>
       </c>
@@ -12203,7 +13394,7 @@
         <v>602</v>
       </c>
     </row>
-    <row r="119" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="119" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A119" t="s">
         <v>547</v>
       </c>
@@ -12238,7 +13429,7 @@
         <v>605</v>
       </c>
     </row>
-    <row r="121" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="121" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A121" t="s">
         <v>498</v>
       </c>
@@ -12250,7 +13441,7 @@
         <v>348.6</v>
       </c>
     </row>
-    <row r="122" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="122" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D122" t="s">
         <v>589</v>
       </c>
@@ -12259,7 +13450,7 @@
         <v>343.4</v>
       </c>
     </row>
-    <row r="123" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="123" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D123" t="s">
         <v>590</v>
       </c>
@@ -12271,7 +13462,7 @@
         <v>617</v>
       </c>
     </row>
-    <row r="124" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="124" spans="1:17" x14ac:dyDescent="0.2">
       <c r="D124" t="s">
         <v>606</v>
       </c>
@@ -12280,12 +13471,12 @@
         <v>355.8</v>
       </c>
     </row>
-    <row r="126" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="126" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A126" t="s">
         <v>607</v>
       </c>
     </row>
-    <row r="128" spans="1:17" x14ac:dyDescent="0.3">
+    <row r="128" spans="1:17" x14ac:dyDescent="0.2">
       <c r="A128" s="4" t="s">
         <v>548</v>
       </c>
@@ -12325,7 +13516,7 @@
         <v>619</v>
       </c>
     </row>
-    <row r="129" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="129" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A129" s="4" t="s">
         <v>608</v>
       </c>
@@ -12365,7 +13556,7 @@
         <v>624</v>
       </c>
     </row>
-    <row r="130" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="130" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A130" s="4" t="s">
         <v>609</v>
       </c>
@@ -12405,7 +13596,7 @@
         <v>627</v>
       </c>
     </row>
-    <row r="131" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="131" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A131" s="4" t="s">
         <v>610</v>
       </c>
@@ -12445,7 +13636,7 @@
         <v>630</v>
       </c>
     </row>
-    <row r="132" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="132" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A132" s="4" t="s">
         <v>611</v>
       </c>
@@ -12485,7 +13676,7 @@
         <v>633</v>
       </c>
     </row>
-    <row r="133" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="133" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A133" t="s">
         <v>612</v>
       </c>
@@ -12520,7 +13711,7 @@
         <v>636</v>
       </c>
     </row>
-    <row r="134" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="134" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A134" t="s">
         <v>613</v>
       </c>
@@ -12555,7 +13746,7 @@
         <v>639</v>
       </c>
     </row>
-    <row r="135" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="135" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A135" t="s">
         <v>614</v>
       </c>
@@ -12590,7 +13781,7 @@
         <v>642</v>
       </c>
     </row>
-    <row r="136" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="136" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A136" t="s">
         <v>615</v>
       </c>
@@ -12625,7 +13816,7 @@
         <v>645</v>
       </c>
     </row>
-    <row r="137" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="137" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A137" t="s">
         <v>616</v>
       </c>
@@ -12660,12 +13851,12 @@
         <v>648</v>
       </c>
     </row>
-    <row r="139" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="139" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A139" t="s">
         <v>618</v>
       </c>
     </row>
-    <row r="141" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="141" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A141" t="s">
         <v>534</v>
       </c>
@@ -12681,7 +13872,7 @@
         <v>236.8</v>
       </c>
     </row>
-    <row r="142" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="142" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A142" t="s">
         <v>535</v>
       </c>
@@ -12697,17 +13888,17 @@
         <v>237.6</v>
       </c>
     </row>
-    <row r="143" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="143" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A143" t="s">
         <v>649</v>
       </c>
     </row>
-    <row r="145" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="145" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A145" s="5" t="s">
         <v>650</v>
       </c>
     </row>
-    <row r="147" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="147" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A147" t="s">
         <v>653</v>
       </c>
@@ -12745,7 +13936,7 @@
         <v>658</v>
       </c>
     </row>
-    <row r="148" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="148" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A148" t="s">
         <v>654</v>
       </c>
@@ -12783,7 +13974,7 @@
         <v>659</v>
       </c>
     </row>
-    <row r="149" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="149" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A149" t="s">
         <v>655</v>
       </c>
@@ -12821,7 +14012,7 @@
         <v>660</v>
       </c>
     </row>
-    <row r="150" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="150" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A150" t="s">
         <v>656</v>
       </c>
@@ -12859,7 +14050,7 @@
         <v>661</v>
       </c>
     </row>
-    <row r="151" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="151" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A151" t="s">
         <v>657</v>
       </c>
@@ -12897,7 +14088,7 @@
         <v>663</v>
       </c>
     </row>
-    <row r="152" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="152" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A152" t="s">
         <v>664</v>
       </c>
@@ -12935,7 +14126,7 @@
         <v>669</v>
       </c>
     </row>
-    <row r="153" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="153" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A153" t="s">
         <v>665</v>
       </c>
@@ -12973,7 +14164,7 @@
         <v>670</v>
       </c>
     </row>
-    <row r="154" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="154" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A154" t="s">
         <v>666</v>
       </c>
@@ -13011,7 +14202,7 @@
         <v>672</v>
       </c>
     </row>
-    <row r="155" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="155" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A155" t="s">
         <v>667</v>
       </c>
@@ -13049,7 +14240,7 @@
         <v>674</v>
       </c>
     </row>
-    <row r="156" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="156" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A156" t="s">
         <v>668</v>
       </c>
@@ -13087,7 +14278,7 @@
         <v>675</v>
       </c>
     </row>
-    <row r="157" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="157" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A157" t="s">
         <v>676</v>
       </c>
@@ -13125,7 +14316,7 @@
         <v>681</v>
       </c>
     </row>
-    <row r="158" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="158" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A158" t="s">
         <v>677</v>
       </c>
@@ -13163,7 +14354,7 @@
         <v>683</v>
       </c>
     </row>
-    <row r="159" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="159" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A159" t="s">
         <v>678</v>
       </c>
@@ -13201,7 +14392,7 @@
         <v>685</v>
       </c>
     </row>
-    <row r="160" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="160" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A160" t="s">
         <v>679</v>
       </c>
@@ -13239,7 +14430,7 @@
         <v>687</v>
       </c>
     </row>
-    <row r="161" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="161" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A161" t="s">
         <v>680</v>
       </c>
@@ -13277,7 +14468,7 @@
         <v>688</v>
       </c>
     </row>
-    <row r="162" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="162" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A162" t="s">
         <v>689</v>
       </c>
@@ -13315,7 +14506,7 @@
         <v>694</v>
       </c>
     </row>
-    <row r="163" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="163" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A163" t="s">
         <v>690</v>
       </c>
@@ -13353,7 +14544,7 @@
         <v>696</v>
       </c>
     </row>
-    <row r="164" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="164" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A164" t="s">
         <v>691</v>
       </c>
@@ -13391,7 +14582,7 @@
         <v>697</v>
       </c>
     </row>
-    <row r="165" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="165" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A165" t="s">
         <v>692</v>
       </c>
@@ -13429,7 +14620,7 @@
         <v>699</v>
       </c>
     </row>
-    <row r="166" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="166" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A166" t="s">
         <v>693</v>
       </c>
@@ -13467,7 +14658,7 @@
         <v>701</v>
       </c>
     </row>
-    <row r="167" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="167" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A167" t="s">
         <v>702</v>
       </c>
@@ -13505,7 +14696,7 @@
         <v>710</v>
       </c>
     </row>
-    <row r="168" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="168" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A168" t="s">
         <v>703</v>
       </c>
@@ -13543,7 +14734,7 @@
         <v>712</v>
       </c>
     </row>
-    <row r="169" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="169" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A169" t="s">
         <v>704</v>
       </c>
@@ -13581,7 +14772,7 @@
         <v>714</v>
       </c>
     </row>
-    <row r="170" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="170" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A170" t="s">
         <v>705</v>
       </c>
@@ -13619,7 +14810,7 @@
         <v>716</v>
       </c>
     </row>
-    <row r="171" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="171" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A171" t="s">
         <v>706</v>
       </c>
@@ -13657,22 +14848,22 @@
         <v>708</v>
       </c>
     </row>
-    <row r="173" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="173" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A173" t="s">
         <v>722</v>
       </c>
     </row>
-    <row r="174" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="174" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A174" t="s">
         <v>758</v>
       </c>
     </row>
-    <row r="175" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="175" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A175" t="s">
         <v>759</v>
       </c>
     </row>
-    <row r="177" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="177" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A177" t="s">
         <v>717</v>
       </c>
@@ -13710,7 +14901,7 @@
         <v>726</v>
       </c>
     </row>
-    <row r="178" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="178" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A178" t="s">
         <v>718</v>
       </c>
@@ -13748,7 +14939,7 @@
         <v>724</v>
       </c>
     </row>
-    <row r="179" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="179" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A179" t="s">
         <v>719</v>
       </c>
@@ -13786,7 +14977,7 @@
         <v>728</v>
       </c>
     </row>
-    <row r="180" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="180" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A180" t="s">
         <v>720</v>
       </c>
@@ -13824,7 +15015,7 @@
         <v>730</v>
       </c>
     </row>
-    <row r="181" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="181" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A181" t="s">
         <v>721</v>
       </c>
@@ -13862,13 +15053,13 @@
         <v>732</v>
       </c>
     </row>
-    <row r="182" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="182" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O182">
         <f>AVERAGE(O177:O181)</f>
         <v>242.4</v>
       </c>
     </row>
-    <row r="185" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="185" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A185" t="s">
         <v>717</v>
       </c>
@@ -13906,7 +15097,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="186" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="186" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A186" t="s">
         <v>718</v>
       </c>
@@ -13944,7 +15135,7 @@
         <v>736</v>
       </c>
     </row>
-    <row r="187" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="187" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A187" t="s">
         <v>719</v>
       </c>
@@ -13982,7 +15173,7 @@
         <v>738</v>
       </c>
     </row>
-    <row r="188" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="188" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A188" t="s">
         <v>720</v>
       </c>
@@ -14020,7 +15211,7 @@
         <v>740</v>
       </c>
     </row>
-    <row r="189" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="189" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A189" t="s">
         <v>721</v>
       </c>
@@ -14058,13 +15249,13 @@
         <v>742</v>
       </c>
     </row>
-    <row r="190" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="190" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O190">
         <f>AVERAGE(O185:O189)</f>
         <v>234.4</v>
       </c>
     </row>
-    <row r="192" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="192" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A192" t="s">
         <v>743</v>
       </c>
@@ -14102,7 +15293,7 @@
         <v>748</v>
       </c>
     </row>
-    <row r="193" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="193" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A193" t="s">
         <v>744</v>
       </c>
@@ -14140,7 +15331,7 @@
         <v>750</v>
       </c>
     </row>
-    <row r="194" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="194" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A194" t="s">
         <v>745</v>
       </c>
@@ -14178,7 +15369,7 @@
         <v>752</v>
       </c>
     </row>
-    <row r="195" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="195" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A195" t="s">
         <v>746</v>
       </c>
@@ -14216,7 +15407,7 @@
         <v>754</v>
       </c>
     </row>
-    <row r="196" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="196" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A196" t="s">
         <v>747</v>
       </c>
@@ -14254,13 +15445,13 @@
         <v>756</v>
       </c>
     </row>
-    <row r="197" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="197" spans="1:16" x14ac:dyDescent="0.2">
       <c r="O197">
         <f>AVERAGE(O192:O196)</f>
         <v>242</v>
       </c>
     </row>
-    <row r="199" spans="1:16" x14ac:dyDescent="0.3">
+    <row r="199" spans="1:16" x14ac:dyDescent="0.2">
       <c r="A199" t="s">
         <v>757</v>
       </c>
